--- a/Libro1 - Terminado.xlsx
+++ b/Libro1 - Terminado.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo\Desktop\proyectos\proyectoalmacen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\proyectoalmacen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Fichas" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="111">
   <si>
     <t>analisis y desarrollo de sistemas de informacion</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>INSTRUCTOR</t>
-  </si>
-  <si>
-    <t>NUMERO DOCUMENTO</t>
   </si>
   <si>
     <t>HORARIO</t>
@@ -367,7 +364,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -724,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,15 +732,14 @@
     <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="6"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="6"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>76</v>
       </c>
@@ -756,26 +752,23 @@
       <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>80</v>
+      <c r="E1" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1132816</v>
       </c>
@@ -788,26 +781,23 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6">
-        <v>1053811426</v>
+      <c r="E2" s="7">
+        <v>42471</v>
       </c>
       <c r="F2" s="7">
-        <v>42471</v>
-      </c>
-      <c r="G2" s="7">
         <v>43020</v>
       </c>
-      <c r="H2" s="1">
+      <c r="G2" s="1">
         <v>43201</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1323395</v>
       </c>
@@ -820,26 +810,23 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
-        <v>1053811426</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="7">
         <v>42842</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
         <v>43572</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1368665</v>
       </c>
@@ -852,26 +839,23 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6">
-        <v>1053811426</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="7">
         <v>42842</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1375843</v>
       </c>
@@ -884,26 +868,23 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
-        <v>16077061</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="7">
         <v>42842</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="F5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1094381</v>
       </c>
@@ -916,26 +897,23 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6">
-        <v>1053770404</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
         <v>42943</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1261608</v>
       </c>
@@ -948,26 +926,23 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6">
-        <v>10245454</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
         <v>43338</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1261604</v>
       </c>
@@ -980,26 +955,23 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6">
-        <v>75091846</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="E8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
         <v>43216</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1301351</v>
       </c>
@@ -1012,26 +984,23 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6">
-        <v>10245454</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="7">
         <v>42653</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="F9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
         <v>43080</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1368569</v>
       </c>
@@ -1044,26 +1013,23 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6">
-        <v>1053782472</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E10" s="7">
         <v>42842</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1075391</v>
       </c>
@@ -1076,26 +1042,23 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6">
-        <v>1053770404</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="E11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
         <v>43006</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1323382</v>
       </c>
@@ -1108,26 +1071,23 @@
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="6">
-        <v>1053770404</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="E12" s="7">
         <v>42758</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="F12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
         <v>43669</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1368604</v>
       </c>
@@ -1140,26 +1100,23 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="6">
-        <v>75091846</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="E13" s="7">
         <v>42842</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1132795</v>
       </c>
@@ -1172,26 +1129,23 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="6">
-        <v>75096903</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="E14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
         <v>43019</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1132701</v>
       </c>
@@ -1204,26 +1158,23 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="6">
-        <v>16071103</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="E15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1182104</v>
       </c>
@@ -1236,26 +1187,23 @@
       <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="6">
-        <v>10271981</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="E16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
         <v>42927</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1197616</v>
       </c>
@@ -1268,26 +1216,23 @@
       <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="6">
-        <v>10279373</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="E17" s="7">
         <v>42562</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="F17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
         <v>43111</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1368653</v>
       </c>
@@ -1300,26 +1245,23 @@
       <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="6">
-        <v>75091293</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="E18" s="7">
         <v>42842</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="F18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1132756</v>
       </c>
@@ -1332,26 +1274,23 @@
       <c r="D19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="6">
-        <v>10279010</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="E19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7">
         <v>43020</v>
       </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1197544</v>
       </c>
@@ -1364,26 +1303,23 @@
       <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="6">
-        <v>30287195</v>
+      <c r="E20" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="G20" s="1">
         <v>43111</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1197576</v>
       </c>
@@ -1396,26 +1332,23 @@
       <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="6">
-        <v>94283555</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="E21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="7">
         <v>43111</v>
       </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1368673</v>
       </c>
@@ -1428,26 +1361,23 @@
       <c r="D22" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="6">
-        <v>75073330</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="E22" s="7">
         <v>42842</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1368529</v>
       </c>
@@ -1460,26 +1390,23 @@
       <c r="D23" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="6">
-        <v>75073330</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="E23" s="7">
         <v>42842</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="F23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1323358</v>
       </c>
@@ -1492,26 +1419,23 @@
       <c r="D24" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="6">
-        <v>30397958</v>
+      <c r="E24" s="7">
+        <v>42758</v>
       </c>
       <c r="F24" s="7">
-        <v>42758</v>
-      </c>
-      <c r="G24" s="7">
         <v>43669</v>
       </c>
-      <c r="H24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1367722</v>
       </c>
@@ -1524,26 +1448,23 @@
       <c r="D25" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="6">
-        <v>30287195</v>
+      <c r="E25" s="7">
+        <v>42838</v>
       </c>
       <c r="F25" s="7">
-        <v>42838</v>
-      </c>
-      <c r="G25" s="7">
         <v>43356</v>
       </c>
-      <c r="H25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1114874</v>
       </c>
@@ -1556,26 +1477,23 @@
       <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="6">
-        <v>75081636</v>
+      <c r="E26" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="G26" s="1">
         <v>43056</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1343933</v>
       </c>
@@ -1588,26 +1506,23 @@
       <c r="D27" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="6">
-        <v>11224476</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="E27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="7">
         <v>42691</v>
       </c>
-      <c r="H27" s="1">
+      <c r="G27" s="1">
         <v>42872</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1368501</v>
       </c>
@@ -1620,26 +1535,23 @@
       <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="6">
-        <v>1085297027</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="E28" s="7">
         <v>42842</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1368642</v>
       </c>
@@ -1652,26 +1564,23 @@
       <c r="D29" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="6">
-        <v>9817289</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="E29" s="7">
         <v>42842</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1368642</v>
       </c>
@@ -1684,26 +1593,23 @@
       <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="6">
-        <v>9817289</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="E30" s="7">
         <v>42842</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1306630</v>
       </c>
@@ -1716,26 +1622,23 @@
       <c r="D31" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="6">
-        <v>16073677</v>
-      </c>
-      <c r="F31" s="7">
+      <c r="E31" s="7">
         <v>42804</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1368498</v>
       </c>
@@ -1748,26 +1651,23 @@
       <c r="D32" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="6">
-        <v>16073677</v>
-      </c>
-      <c r="F32" s="7">
+      <c r="E32" s="7">
         <v>42842</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="F32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1369525</v>
       </c>
@@ -1780,26 +1680,23 @@
       <c r="D33" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="6">
-        <v>30307343</v>
-      </c>
-      <c r="F33" s="7">
+      <c r="E33" s="7">
         <v>42842</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="F33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
         <v>43268</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1369525</v>
       </c>
@@ -1812,26 +1709,23 @@
       <c r="D34" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="6">
-        <v>30307343</v>
+      <c r="E34" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="6" t="s">
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1368558</v>
       </c>
@@ -1844,26 +1738,23 @@
       <c r="D35" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="6">
-        <v>98392877</v>
-      </c>
-      <c r="F35" s="7">
+      <c r="E35" s="7">
         <v>42842</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1368558</v>
       </c>
@@ -1876,26 +1767,23 @@
       <c r="D36" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="6">
-        <v>98392877</v>
-      </c>
-      <c r="F36" s="7">
+      <c r="E36" s="7">
         <v>42842</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1343983</v>
       </c>
@@ -1908,26 +1796,23 @@
       <c r="D37" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="6">
-        <v>75081636</v>
+      <c r="E37" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="G37" s="1">
         <v>43055</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1374264</v>
       </c>
@@ -1940,26 +1825,23 @@
       <c r="D38" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="6">
-        <v>30292725</v>
+      <c r="E38" s="7">
+        <v>42786</v>
       </c>
       <c r="F38" s="7">
-        <v>42786</v>
-      </c>
-      <c r="G38" s="7">
         <v>42875</v>
       </c>
-      <c r="H38" s="1">
+      <c r="G38" s="1">
         <v>42967</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1362328</v>
       </c>
@@ -1972,26 +1854,23 @@
       <c r="D39" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="6">
-        <v>25232397</v>
+      <c r="E39" s="7">
+        <v>42772</v>
       </c>
       <c r="F39" s="7">
-        <v>42772</v>
-      </c>
-      <c r="G39" s="7">
         <v>42861</v>
       </c>
-      <c r="H39" s="1">
+      <c r="G39" s="1">
         <v>42953</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1343061</v>
       </c>
@@ -2004,22 +1883,19 @@
       <c r="D40" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="6">
-        <v>1110506666</v>
+      <c r="E40" s="7">
+        <v>42689</v>
       </c>
       <c r="F40" s="7">
-        <v>42689</v>
-      </c>
-      <c r="G40" s="7">
         <v>42870</v>
       </c>
-      <c r="H40" s="1">
+      <c r="G40" s="1">
         <v>42993</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="H40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2034,7 +1910,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,48 +1924,48 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
       </c>
       <c r="F2">
         <v>1053881</v>
@@ -2101,7 +1977,7 @@
         <v>3212001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +1992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2129,39 +2005,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>109</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
       </c>
       <c r="F2">
         <v>90</v>

--- a/Libro1 - Terminado.xlsx
+++ b/Libro1 - Terminado.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo\Desktop\proyectos\proyectoalmacen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natsu\Desktop\proyectoalmacen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructores" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="515">
   <si>
     <t>analisis y desarrollo de sistemas de informacion</t>
   </si>
@@ -292,24 +292,6 @@
     <t>CELULAR</t>
   </si>
   <si>
-    <t>Camilo</t>
-  </si>
-  <si>
-    <t>Rincón</t>
-  </si>
-  <si>
-    <t>Técnico</t>
-  </si>
-  <si>
-    <t>Planta</t>
-  </si>
-  <si>
-    <t>Tec</t>
-  </si>
-  <si>
-    <t>camilo@mail.com</t>
-  </si>
-  <si>
     <t>NUMERO DOCUMENTO INS</t>
   </si>
   <si>
@@ -346,29 +328,1260 @@
     <t>CUPO</t>
   </si>
   <si>
-    <t>Sistemas 1</t>
-  </si>
-  <si>
-    <t>Procesos</t>
-  </si>
-  <si>
-    <t>Fijo</t>
-  </si>
-  <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>Aula</t>
+    <t>IMAGEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alexander </t>
+  </si>
+  <si>
+    <t>garcia vasquez</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>planta</t>
+  </si>
+  <si>
+    <t>instructor  g-19 mantenimiento</t>
+  </si>
+  <si>
+    <t>agarciavasquez@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/perdefault.png</t>
+  </si>
+  <si>
+    <t>aparicio</t>
+  </si>
+  <si>
+    <t>mejia rendon</t>
+  </si>
+  <si>
+    <t>instructor g-16 construccion</t>
+  </si>
+  <si>
+    <t>apariciomejia@misena.edu.co</t>
+  </si>
+  <si>
+    <t>consuelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garcia escobar </t>
+  </si>
+  <si>
+    <t>instructora  g-20 emprendimiento</t>
+  </si>
+  <si>
+    <t>cgarciae@misena.edu.co</t>
+  </si>
+  <si>
+    <t>cristian mauricio</t>
+  </si>
+  <si>
+    <t>toro</t>
+  </si>
+  <si>
+    <t>instructor g-6 soldadura</t>
+  </si>
+  <si>
+    <t>mtorov@misena.edu.co</t>
+  </si>
+  <si>
+    <t>diego alexander</t>
+  </si>
+  <si>
+    <t>grajales perez</t>
+  </si>
+  <si>
+    <t>planta selected="selected"</t>
+  </si>
+  <si>
+    <t>instructor g-11 mantenimiento</t>
+  </si>
+  <si>
+    <t>dagrajales@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1504550872.jpeg</t>
+  </si>
+  <si>
+    <t>elver</t>
+  </si>
+  <si>
+    <t>valencia</t>
+  </si>
+  <si>
+    <t>instructor g- 14 soldadura</t>
+  </si>
+  <si>
+    <t>elvervalencia@misena.edu.co</t>
+  </si>
+  <si>
+    <t>fernando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rodriguez valencia </t>
+  </si>
+  <si>
+    <t>equipo tecnico pedagogico instructor g-20</t>
+  </si>
+  <si>
+    <t>ferrodriguezv@misena.edu.co</t>
+  </si>
+  <si>
+    <t>francisco javier</t>
+  </si>
+  <si>
+    <t>vargas</t>
+  </si>
+  <si>
+    <t>instructor g-16 mantenimiento</t>
+  </si>
+  <si>
+    <t>fjvargas@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1504550892.jpeg</t>
+  </si>
+  <si>
+    <t>guillermo antonio</t>
+  </si>
+  <si>
+    <t>valencia velasquez</t>
+  </si>
+  <si>
+    <t>instructor g-13 electricidad</t>
+  </si>
+  <si>
+    <t>guivalen@misena.edu.co</t>
+  </si>
+  <si>
+    <t>jaime</t>
+  </si>
+  <si>
+    <t>giraldo orrego</t>
+  </si>
+  <si>
+    <t>instructor g-19 electricidad</t>
+  </si>
+  <si>
+    <t>jagio13@misena.edu.co</t>
+  </si>
+  <si>
+    <t>trejos londono</t>
+  </si>
+  <si>
+    <t>instructor g-16 electricidad</t>
+  </si>
+  <si>
+    <t>jtrejos@misena.edu.co</t>
+  </si>
+  <si>
+    <t>jhon fredy</t>
+  </si>
+  <si>
+    <t>cortes soto</t>
+  </si>
+  <si>
+    <t>jfrecos@misena.edu.co</t>
+  </si>
+  <si>
+    <t>jhon jairo</t>
+  </si>
+  <si>
+    <t>cardenas romero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instructor g-20 -gestor red de conocimiento automotor
+</t>
+  </si>
+  <si>
+    <t>jotajota@misena.edu.co</t>
+  </si>
+  <si>
+    <t>jose alirio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">londono rivera </t>
+  </si>
+  <si>
+    <t>instructor g-13 mantenimiento</t>
+  </si>
+  <si>
+    <t>alonri@misena.edu.co</t>
+  </si>
+  <si>
+    <t>jose fernando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vergara gallego </t>
+  </si>
+  <si>
+    <t>instructor g-17 metalmecanica</t>
+  </si>
+  <si>
+    <t>jfvergara@misena.edu.co</t>
+  </si>
+  <si>
+    <t>juan carlos</t>
+  </si>
+  <si>
+    <t>arango arbelaez</t>
+  </si>
+  <si>
+    <t>instructor g-12 automotriz</t>
+  </si>
+  <si>
+    <t>jcarango@misena.edu.co</t>
+  </si>
+  <si>
+    <t>lopez morales</t>
+  </si>
+  <si>
+    <t>instructor g-10 electricidad</t>
+  </si>
+  <si>
+    <t>juanclopez10@misena.edu.co</t>
+  </si>
+  <si>
+    <t>ruge osorio</t>
+  </si>
+  <si>
+    <t>instructor g-20 calidad- evaluador competencias laborales</t>
+  </si>
+  <si>
+    <t>juanruge@misena.edu.co</t>
+  </si>
+  <si>
+    <t>luis enrique</t>
+  </si>
+  <si>
+    <t>bravo cardona</t>
+  </si>
+  <si>
+    <t>instructor g-20 saludo ocupacional</t>
+  </si>
+  <si>
+    <t>lebravocardona@misena.edu.co</t>
+  </si>
+  <si>
+    <t>luz de fatima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alvarez osorio </t>
+  </si>
+  <si>
+    <t>instructora g-20 confeccion</t>
+  </si>
+  <si>
+    <t>lfalvarez@misena.edu.co</t>
+  </si>
+  <si>
+    <t>miriam claudina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garcia naranjo </t>
+  </si>
+  <si>
+    <t>instructora  g-20 electricidad</t>
+  </si>
+  <si>
+    <t>mcgarcian@misena.edu.co</t>
+  </si>
+  <si>
+    <t>roberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estrada herrera </t>
+  </si>
+  <si>
+    <t>instructor g-12 sistemas</t>
+  </si>
+  <si>
+    <t>restradah@misena.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruby </t>
+  </si>
+  <si>
+    <t>vargas ruiz</t>
+  </si>
+  <si>
+    <t>instructora g-14 confeccion</t>
+  </si>
+  <si>
+    <t>ruvaruiz@misena.edu.co</t>
+  </si>
+  <si>
+    <t>victor mauricio</t>
+  </si>
+  <si>
+    <t>acevedo correa</t>
+  </si>
+  <si>
+    <t>instructor mecanica automotriz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vmacevedo@misena.edu.co </t>
+  </si>
+  <si>
+    <t>paula andrea</t>
+  </si>
+  <si>
+    <t>londono</t>
+  </si>
+  <si>
+    <t>instructora g-11 sistemas</t>
+  </si>
+  <si>
+    <t>palondono25@misena.edu.co</t>
+  </si>
+  <si>
+    <t>dairo de jesus</t>
+  </si>
+  <si>
+    <t>ganan gallo</t>
+  </si>
+  <si>
+    <t>instructor diseno mecanico</t>
+  </si>
+  <si>
+    <t>dairog@misena.edu.co</t>
+  </si>
+  <si>
+    <t>roland</t>
+  </si>
+  <si>
+    <t>roth echeverry</t>
+  </si>
+  <si>
+    <t>instructor ingles</t>
+  </si>
+  <si>
+    <t>rolyroth@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687450.jpg</t>
+  </si>
+  <si>
+    <t>sandra milena</t>
+  </si>
+  <si>
+    <t>trujillo ortiz</t>
+  </si>
+  <si>
+    <t>contratista</t>
+  </si>
+  <si>
+    <t>instructora confeccion</t>
+  </si>
+  <si>
+    <t>smtrujillo@misena.edu.co</t>
+  </si>
+  <si>
+    <t>diego</t>
+  </si>
+  <si>
+    <t>giraldo ramirez</t>
+  </si>
+  <si>
+    <t>instructor electricidad virtual</t>
+  </si>
+  <si>
+    <t>dgr555@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503634106.png</t>
+  </si>
+  <si>
+    <t>monica eugenia</t>
+  </si>
+  <si>
+    <t>montoya arias</t>
+  </si>
+  <si>
+    <t>instructora seguridad ocupacional</t>
+  </si>
+  <si>
+    <t>memontoya53@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687293.jpg</t>
+  </si>
+  <si>
+    <t>natalia</t>
+  </si>
+  <si>
+    <t>erazo becerra</t>
+  </si>
+  <si>
+    <t>instructora electricidad virtual</t>
+  </si>
+  <si>
+    <t>nata_erazo@hotmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687309.png</t>
+  </si>
+  <si>
+    <t>claudia sonia</t>
+  </si>
+  <si>
+    <t>serna granada</t>
+  </si>
+  <si>
+    <t>instructora ingles</t>
+  </si>
+  <si>
+    <t>cls0230@my.londonmet.ac.uk</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503633852.jpg</t>
+  </si>
+  <si>
+    <t>carmen elena</t>
+  </si>
+  <si>
+    <t>hernandez rincon</t>
+  </si>
+  <si>
+    <t>instructora etica</t>
+  </si>
+  <si>
+    <t>carelena@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503632862.jpg</t>
+  </si>
+  <si>
+    <t>alexander</t>
+  </si>
+  <si>
+    <t>romero moreno</t>
+  </si>
+  <si>
+    <t>instructor trabajo en alturas</t>
+  </si>
+  <si>
+    <t>aromero824@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503631625.jpg</t>
+  </si>
+  <si>
+    <t>cruz mejia</t>
+  </si>
+  <si>
+    <t>instructora calidad</t>
+  </si>
+  <si>
+    <t>paulaandreacruz@yahoo.es</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503769423.PNG</t>
+  </si>
+  <si>
+    <t>maria beatriz</t>
+  </si>
+  <si>
+    <t>pava hurtado</t>
+  </si>
+  <si>
+    <t>bpava@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687128.jpg</t>
+  </si>
+  <si>
+    <t>luisa fernanda</t>
+  </si>
+  <si>
+    <t>echeverri caballero</t>
+  </si>
+  <si>
+    <t>instructora comunicaciones</t>
+  </si>
+  <si>
+    <t>lfecheverri38@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687084.jpg</t>
+  </si>
+  <si>
+    <t>castano calvo</t>
+  </si>
+  <si>
+    <t>instructora cultura fisica</t>
+  </si>
+  <si>
+    <t>lfcalvo@misena.edu.co</t>
+  </si>
+  <si>
+    <t>german</t>
+  </si>
+  <si>
+    <t>rodriguez valencia</t>
+  </si>
+  <si>
+    <t>instructor construccion</t>
+  </si>
+  <si>
+    <t>grodriguez86@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503685617.png</t>
+  </si>
+  <si>
+    <t>oscar fernando</t>
+  </si>
+  <si>
+    <t>aristizabal cardona</t>
+  </si>
+  <si>
+    <t>instructor sistemas</t>
+  </si>
+  <si>
+    <t>ofac@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687351.jpg</t>
+  </si>
+  <si>
+    <t>andres mauricio</t>
+  </si>
+  <si>
+    <t>jaramillo gonzalez</t>
+  </si>
+  <si>
+    <t>anmajago@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503632094.jpg</t>
+  </si>
+  <si>
+    <t>jorge alberto</t>
+  </si>
+  <si>
+    <t>tamayo grisales</t>
+  </si>
+  <si>
+    <t>vabe9@hotmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503686247.jpg</t>
+  </si>
+  <si>
+    <t>diego andres</t>
+  </si>
+  <si>
+    <t>serna velasquez</t>
+  </si>
+  <si>
+    <t>daserna99@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503634163.jpg</t>
+  </si>
+  <si>
+    <t>stharling melody</t>
+  </si>
+  <si>
+    <t>ramos giraldo</t>
+  </si>
+  <si>
+    <t>instructora electricidad</t>
+  </si>
+  <si>
+    <t>smelodyrg@gmail.com</t>
+  </si>
+  <si>
+    <t>luis camilo</t>
+  </si>
+  <si>
+    <t>estrada patino</t>
+  </si>
+  <si>
+    <t>luis.23513230762@ucaldas.edu.co</t>
+  </si>
+  <si>
+    <t>olga clemencia</t>
+  </si>
+  <si>
+    <t>marin henao</t>
+  </si>
+  <si>
+    <t>ocmarinh@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687338.jpg</t>
+  </si>
+  <si>
+    <t>andres felipe</t>
+  </si>
+  <si>
+    <t>lopez chica</t>
+  </si>
+  <si>
+    <t>instructor ambiental</t>
+  </si>
+  <si>
+    <t>felopez11@gmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503631781.png</t>
+  </si>
+  <si>
+    <t>gladys francelly</t>
+  </si>
+  <si>
+    <t>cardona franco</t>
+  </si>
+  <si>
+    <t>gladys.francelly@gmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503768558.png</t>
+  </si>
+  <si>
+    <t>javier</t>
+  </si>
+  <si>
+    <t>ariza useche</t>
+  </si>
+  <si>
+    <t>javier.ariza@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503685938.jpg</t>
+  </si>
+  <si>
+    <t>jaime adolfo</t>
+  </si>
+  <si>
+    <t>fuentes sanchez</t>
+  </si>
+  <si>
+    <t>instructor motos</t>
+  </si>
+  <si>
+    <t>adolfofuentes@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503685825.jpg</t>
+  </si>
+  <si>
+    <t>lorena patricia</t>
+  </si>
+  <si>
+    <t>valencia.lp@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503686726.png</t>
+  </si>
+  <si>
+    <t>arciniegas cordoba</t>
+  </si>
+  <si>
+    <t>instructor calidad</t>
+  </si>
+  <si>
+    <t>fernandoac@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503685443.jpg</t>
+  </si>
+  <si>
+    <t>duque gallego</t>
+  </si>
+  <si>
+    <t>johnzegath@gmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503686060.jpg</t>
+  </si>
+  <si>
+    <t>jurado patino</t>
+  </si>
+  <si>
+    <t>instructor topografia</t>
+  </si>
+  <si>
+    <t>afjurado40@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503631956.jpg</t>
+  </si>
+  <si>
+    <t>angela marcela</t>
+  </si>
+  <si>
+    <t>castellanos ortegon</t>
+  </si>
+  <si>
+    <t>amcastellanoso@misena.edu.co</t>
+  </si>
+  <si>
+    <t>camilo andres</t>
+  </si>
+  <si>
+    <t>arango munoz</t>
+  </si>
+  <si>
+    <t>instructor mobiliario y maderas</t>
+  </si>
+  <si>
+    <t>camiaramo@misena.edu.co</t>
+  </si>
+  <si>
+    <t>yaneth</t>
+  </si>
+  <si>
+    <t>instructora sistemas</t>
+  </si>
+  <si>
+    <t>ymejia624@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687687.jpg</t>
+  </si>
+  <si>
+    <t>daniel felipe</t>
+  </si>
+  <si>
+    <t>moncada cardona</t>
+  </si>
+  <si>
+    <t>danielmoncada@gmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503634016.jpg</t>
+  </si>
+  <si>
+    <t>mario leandro</t>
+  </si>
+  <si>
+    <t>vanegas valencia</t>
+  </si>
+  <si>
+    <t>instructor electricidad</t>
+  </si>
+  <si>
+    <t>marlevan38@gmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687259.jpg</t>
+  </si>
+  <si>
+    <t>victor hugo</t>
+  </si>
+  <si>
+    <t>arias saldarriaga</t>
+  </si>
+  <si>
+    <t>victorari17@gmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687533.jpg</t>
+  </si>
+  <si>
+    <t>mario</t>
+  </si>
+  <si>
+    <t>raigosa arango</t>
+  </si>
+  <si>
+    <t>marioraigosaarango@gmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687153.jpg</t>
+  </si>
+  <si>
+    <t>jhonatan</t>
+  </si>
+  <si>
+    <t>franco arias</t>
+  </si>
+  <si>
+    <t>instructor soldadura</t>
+  </si>
+  <si>
+    <t>eltaja1053@hotmail.com</t>
+  </si>
+  <si>
+    <t>yamileth</t>
+  </si>
+  <si>
+    <t>yamierazo@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687675.png</t>
+  </si>
+  <si>
+    <t>andrea del pilar</t>
+  </si>
+  <si>
+    <t>alvarez camargo</t>
+  </si>
+  <si>
+    <t>instructora trabajo alturas</t>
+  </si>
+  <si>
+    <t>aalvarez40@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503631756.jpg</t>
+  </si>
+  <si>
+    <t>alexandra</t>
+  </si>
+  <si>
+    <t>naranjo cardona</t>
+  </si>
+  <si>
+    <t>alexa_nc@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503631664.jpg</t>
+  </si>
+  <si>
+    <t>lucila</t>
+  </si>
+  <si>
+    <t>norena arias</t>
+  </si>
+  <si>
+    <t>lucilanorarias@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503686756.jpg</t>
+  </si>
+  <si>
+    <t>jorge hernan</t>
+  </si>
+  <si>
+    <t>alzate buitrago</t>
+  </si>
+  <si>
+    <t>pizcali1979@gmail.com</t>
+  </si>
+  <si>
+    <t>john alexander</t>
+  </si>
+  <si>
+    <t>arenas noriega</t>
+  </si>
+  <si>
+    <t>jaan821@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503686216.pdf</t>
+  </si>
+  <si>
+    <t>diana eugenia</t>
+  </si>
+  <si>
+    <t>henao barragan</t>
+  </si>
+  <si>
+    <t>instructora motocicletas</t>
+  </si>
+  <si>
+    <t>dehenaob@misena.edu.co</t>
+  </si>
+  <si>
+    <t>andres julian</t>
+  </si>
+  <si>
+    <t>hoyos caicedo</t>
+  </si>
+  <si>
+    <t>ajhoyos@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503632072.jpg</t>
+  </si>
+  <si>
+    <t>mejia lopez</t>
+  </si>
+  <si>
+    <t>fmejia@umanizales.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503634275.jpg</t>
+  </si>
+  <si>
+    <t>claudio alberto</t>
+  </si>
+  <si>
+    <t>valencia sanchez</t>
+  </si>
+  <si>
+    <t>cavalencia033@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503633873.jpg</t>
+  </si>
+  <si>
+    <t>cesar augusto</t>
+  </si>
+  <si>
+    <t>ramirez ocampo</t>
+  </si>
+  <si>
+    <t>instructor maderas</t>
+  </si>
+  <si>
+    <t>cauramirez@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503633756.jpg</t>
+  </si>
+  <si>
+    <t>juan pablo</t>
+  </si>
+  <si>
+    <t>mejia ramirez</t>
+  </si>
+  <si>
+    <t>jpmejiar@hotmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503769147.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angela maria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alzate </t>
+  </si>
+  <si>
+    <t>alegnateza2@gmail.com</t>
+  </si>
+  <si>
+    <t>jhon kevin</t>
+  </si>
+  <si>
+    <t>florez pena</t>
+  </si>
+  <si>
+    <t>instructor automotriz</t>
+  </si>
+  <si>
+    <t>lucas062@gmial.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503686137.jpg</t>
+  </si>
+  <si>
+    <t>lina rocio</t>
+  </si>
+  <si>
+    <t>ospina duque</t>
+  </si>
+  <si>
+    <t>instructora salud ocupacional</t>
+  </si>
+  <si>
+    <t>lirosduque@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503769191.jpg</t>
+  </si>
+  <si>
+    <t>junsun</t>
+  </si>
+  <si>
+    <t>sunico consistente</t>
+  </si>
+  <si>
+    <t>jsunico@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503686604.jpg</t>
+  </si>
+  <si>
+    <t>henao lopez</t>
+  </si>
+  <si>
+    <t>instructor cultura fisica</t>
+  </si>
+  <si>
+    <t>andres_henao_03@hotmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503631936.jpg</t>
+  </si>
+  <si>
+    <t>sara maria</t>
+  </si>
+  <si>
+    <t>clavijo arrubla</t>
+  </si>
+  <si>
+    <t>instructora construccion</t>
+  </si>
+  <si>
+    <t>sarah12340@gmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687499.jpg</t>
+  </si>
+  <si>
+    <t>nestor mauricio</t>
+  </si>
+  <si>
+    <t>pinto norena</t>
+  </si>
+  <si>
+    <t>mauricioelectricista@gmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687324.jpg</t>
+  </si>
+  <si>
+    <t>karen viviana</t>
+  </si>
+  <si>
+    <t>lemos ceballos</t>
+  </si>
+  <si>
+    <t>kvlemus@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503686641.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorge augusto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">villada suaza </t>
+  </si>
+  <si>
+    <t>jovisu@misena.edu.co</t>
+  </si>
+  <si>
+    <t>diana cristina</t>
+  </si>
+  <si>
+    <t>montoya hoyos</t>
+  </si>
+  <si>
+    <t>crismajo10@gmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503634065.jpg</t>
+  </si>
+  <si>
+    <t>callejas orrego</t>
+  </si>
+  <si>
+    <t>lcallejaso@gmail.com</t>
+  </si>
+  <si>
+    <t>carlos andres</t>
+  </si>
+  <si>
+    <t>henao lema</t>
+  </si>
+  <si>
+    <t>cahlema@hotmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503632761.jpg</t>
+  </si>
+  <si>
+    <t>emilce silvana</t>
+  </si>
+  <si>
+    <t>ceron rosero</t>
+  </si>
+  <si>
+    <t>esilcero@hotmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503634220.JPG</t>
+  </si>
+  <si>
+    <t>paola natalia</t>
+  </si>
+  <si>
+    <t>orozco orozco</t>
+  </si>
+  <si>
+    <t>pa.na.oro19@hotmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503687382.jpg</t>
+  </si>
+  <si>
+    <t>asdrubal</t>
+  </si>
+  <si>
+    <t>gomez galeano</t>
+  </si>
+  <si>
+    <t>asdmax@hotmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503632218.jpg</t>
+  </si>
+  <si>
+    <t>javier mauricio</t>
+  </si>
+  <si>
+    <t>cortes moreno</t>
+  </si>
+  <si>
+    <t>instructor joyeria</t>
+  </si>
+  <si>
+    <t>maoco72@hotmail.com</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503685974.pdf</t>
+  </si>
+  <si>
+    <t>jose uriel</t>
+  </si>
+  <si>
+    <t>gallego bernal</t>
+  </si>
+  <si>
+    <t>instructor redes de gas</t>
+  </si>
+  <si>
+    <t>jurielg@misena.edu.co</t>
+  </si>
+  <si>
+    <t>/images/instructors/1503686351.png</t>
+  </si>
+  <si>
+    <t>sistemas 1</t>
+  </si>
+  <si>
+    <t>aula</t>
+  </si>
+  <si>
+    <t>fijo</t>
+  </si>
+  <si>
+    <t>activo</t>
+  </si>
+  <si>
+    <t>/images/classrooms/1504550912.jpeg</t>
+  </si>
+  <si>
+    <t>sistemas 2</t>
+  </si>
+  <si>
+    <t>ambiente lego</t>
+  </si>
+  <si>
+    <t>auditorio procesos industriales y construccion</t>
+  </si>
+  <si>
+    <t>auditorio</t>
+  </si>
+  <si>
+    <t>autocad</t>
+  </si>
+  <si>
+    <t>laboratorio</t>
+  </si>
+  <si>
+    <t>taller</t>
+  </si>
+  <si>
+    <t>/images/classrooms/1504551162.jpeg</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>/images/classrooms/1504551074.jpeg</t>
+  </si>
+  <si>
+    <t>electricidad 1</t>
+  </si>
+  <si>
+    <t>/images/classrooms/1504551125.jpeg</t>
+  </si>
+  <si>
+    <t>electricidad 2</t>
+  </si>
+  <si>
+    <t>electricidad 3</t>
+  </si>
+  <si>
+    <t>electricidad 4</t>
+  </si>
+  <si>
+    <t>/images/classrooms/1504551139.jpeg</t>
+  </si>
+  <si>
+    <t>espacio deportivo para la practica del futbol baloncesto voleibol</t>
+  </si>
+  <si>
+    <t>campo deportivo</t>
+  </si>
+  <si>
+    <t>espacio para trabajo en alturas</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>gimnasio regional caldas</t>
+  </si>
+  <si>
+    <t>maderas</t>
+  </si>
+  <si>
+    <t>mantenimiento</t>
+  </si>
+  <si>
+    <t>/images/classrooms/1504551272.jpeg</t>
+  </si>
+  <si>
+    <t>mecanizado</t>
+  </si>
+  <si>
+    <t>metalografia</t>
+  </si>
+  <si>
+    <t>/images/classrooms/1504551180.jpeg</t>
+  </si>
+  <si>
+    <t>motos cpi</t>
+  </si>
+  <si>
+    <t>refrigeracion</t>
+  </si>
+  <si>
+    <t>/images/classrooms/1504551226.jpeg</t>
+  </si>
+  <si>
+    <t>sistemas 3</t>
+  </si>
+  <si>
+    <t>/images/classrooms/1504551213.jpeg</t>
+  </si>
+  <si>
+    <t>soldadura</t>
+  </si>
+  <si>
+    <t>tecnoparque procesos industriales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,14 +1593,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -410,9 +1615,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -436,13 +1640,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -721,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +1941,7 @@
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
@@ -744,7 +1949,7 @@
         <v>83</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>84</v>
@@ -753,50 +1958,2936 @@
         <v>85</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>87</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F2">
-        <v>1053881</v>
+        <v>7684828</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H2">
-        <v>3212001</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>93</v>
+        <v>3148515827</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3">
+        <v>75091846</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3014160504</v>
+      </c>
+      <c r="I3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4">
+        <v>24318223</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3113076751</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5">
+        <v>16071103</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3136501532</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6">
+        <v>75096903</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3163965678</v>
+      </c>
+      <c r="I6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>75064699</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3117385100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8">
+        <v>10232014</v>
+      </c>
+      <c r="G8">
+        <v>62263</v>
+      </c>
+      <c r="H8">
+        <v>3122588689</v>
+      </c>
+      <c r="I8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9">
+        <v>10243995</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3104707065</v>
+      </c>
+      <c r="I9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10">
+        <v>10279010</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3137656579</v>
+      </c>
+      <c r="I10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11">
+        <v>10286761</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3136443404</v>
+      </c>
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12">
+        <v>10274114</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3147392470</v>
+      </c>
+      <c r="I12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13">
+        <v>10279373</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3103598404</v>
+      </c>
+      <c r="I13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14">
+        <v>10279651</v>
+      </c>
+      <c r="G14">
+        <v>62093</v>
+      </c>
+      <c r="H14">
+        <v>3117784659</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15">
+        <v>10241219</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3122972801</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16">
+        <v>10271981</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3217068789</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17">
+        <v>79274609</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3137169379</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18">
+        <v>94283555</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3122430542</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19">
+        <v>10286847</v>
+      </c>
+      <c r="G19">
+        <v>62097</v>
+      </c>
+      <c r="H19">
+        <v>3108326255</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20">
+        <v>15903478</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3137485587</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21">
+        <v>25232397</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3113851917</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22">
+        <v>30287195</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3104931245</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23">
+        <v>10248388</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3002024140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24">
+        <v>30292725</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>3168756222</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25">
+        <v>9817289</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3137086769</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26">
+        <v>30394952</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>3105312798</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27">
+        <v>75089861</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>3108223340</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28">
+        <v>75103320</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3217369989</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29">
+        <v>30336710</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>3108491154</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30">
+        <v>10250071</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>3206307217</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31">
+        <v>30392935</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>3003108170</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32">
+        <v>24334576</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3134623938</v>
+      </c>
+      <c r="I32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33">
+        <v>30322042</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>3116827825</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34">
+        <v>24340753</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>3147917762</v>
+      </c>
+      <c r="I34" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35">
+        <v>9975428</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>3113681557</v>
+      </c>
+      <c r="I35" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36">
+        <v>30396241</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>3176547111</v>
+      </c>
+      <c r="I36" t="s">
+        <v>249</v>
+      </c>
+      <c r="J36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37">
+        <v>30270825</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>3162559047</v>
+      </c>
+      <c r="I37" t="s">
+        <v>253</v>
+      </c>
+      <c r="J37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38">
+        <v>24335083</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>3146264428</v>
+      </c>
+      <c r="I38" t="s">
+        <v>258</v>
+      </c>
+      <c r="J38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39">
+        <v>30396654</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>3104329906</v>
+      </c>
+      <c r="I39" t="s">
+        <v>262</v>
+      </c>
+      <c r="J39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40">
+        <v>10285068</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>3152735162</v>
+      </c>
+      <c r="I40" t="s">
+        <v>266</v>
+      </c>
+      <c r="J40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41">
+        <v>9859602</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>3103972370</v>
+      </c>
+      <c r="I41" t="s">
+        <v>271</v>
+      </c>
+      <c r="J41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>273</v>
+      </c>
+      <c r="B42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42">
+        <v>75081636</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>3113837172</v>
+      </c>
+      <c r="I42" t="s">
+        <v>275</v>
+      </c>
+      <c r="J42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>277</v>
+      </c>
+      <c r="B43" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" t="s">
+        <v>265</v>
+      </c>
+      <c r="F43">
+        <v>1053782472</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>3003267169</v>
+      </c>
+      <c r="I43" t="s">
+        <v>279</v>
+      </c>
+      <c r="J43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44">
+        <v>75096299</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>3146504873</v>
+      </c>
+      <c r="I44" t="s">
+        <v>283</v>
+      </c>
+      <c r="J44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" t="s">
+        <v>287</v>
+      </c>
+      <c r="F45">
+        <v>30397958</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>3163244180</v>
+      </c>
+      <c r="I45" t="s">
+        <v>288</v>
+      </c>
+      <c r="J45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" t="s">
+        <v>197</v>
+      </c>
+      <c r="F46">
+        <v>1085297027</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>3128488679</v>
+      </c>
+      <c r="I46" t="s">
+        <v>291</v>
+      </c>
+      <c r="J46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47">
+        <v>30395126</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>3147694939</v>
+      </c>
+      <c r="I47" t="s">
+        <v>294</v>
+      </c>
+      <c r="J47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>298</v>
+      </c>
+      <c r="F48">
+        <v>75090879</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>3206874025</v>
+      </c>
+      <c r="I48" t="s">
+        <v>299</v>
+      </c>
+      <c r="J48" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>301</v>
+      </c>
+      <c r="B49" t="s">
+        <v>302</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49">
+        <v>30307343</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>3113364387</v>
+      </c>
+      <c r="I49" t="s">
+        <v>303</v>
+      </c>
+      <c r="J49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>305</v>
+      </c>
+      <c r="B50" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50">
+        <v>79836769</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>3185272465</v>
+      </c>
+      <c r="I50" t="s">
+        <v>307</v>
+      </c>
+      <c r="J50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>309</v>
+      </c>
+      <c r="B51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" t="s">
+        <v>311</v>
+      </c>
+      <c r="F51">
+        <v>11224476</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>3008115106</v>
+      </c>
+      <c r="I51" t="s">
+        <v>312</v>
+      </c>
+      <c r="J51" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52">
+        <v>30338297</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>3176171144</v>
+      </c>
+      <c r="I52" t="s">
+        <v>315</v>
+      </c>
+      <c r="J52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>318</v>
+      </c>
+      <c r="F53">
+        <v>98392877</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>3162860686</v>
+      </c>
+      <c r="I53" t="s">
+        <v>319</v>
+      </c>
+      <c r="J53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>321</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" t="s">
+        <v>265</v>
+      </c>
+      <c r="F54">
+        <v>1053782759</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>3128850805</v>
+      </c>
+      <c r="I54" t="s">
+        <v>322</v>
+      </c>
+      <c r="J54" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>296</v>
+      </c>
+      <c r="B55" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>325</v>
+      </c>
+      <c r="F55">
+        <v>1053770404</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>3015739296</v>
+      </c>
+      <c r="I55" t="s">
+        <v>326</v>
+      </c>
+      <c r="J55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>328</v>
+      </c>
+      <c r="B56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56">
+        <v>30398681</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>3008948200</v>
+      </c>
+      <c r="I56" t="s">
+        <v>330</v>
+      </c>
+      <c r="J56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>331</v>
+      </c>
+      <c r="B57" t="s">
+        <v>332</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>333</v>
+      </c>
+      <c r="F57">
+        <v>16077061</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>3206845171</v>
+      </c>
+      <c r="I57" t="s">
+        <v>334</v>
+      </c>
+      <c r="J57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>336</v>
+      </c>
+      <c r="F58">
+        <v>1053811426</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>3045458490</v>
+      </c>
+      <c r="I58" t="s">
+        <v>337</v>
+      </c>
+      <c r="J58" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>339</v>
+      </c>
+      <c r="B59" t="s">
+        <v>340</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" t="s">
+        <v>265</v>
+      </c>
+      <c r="F59">
+        <v>1053777708</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>3163159109</v>
+      </c>
+      <c r="I59" t="s">
+        <v>341</v>
+      </c>
+      <c r="J59" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>343</v>
+      </c>
+      <c r="B60" t="s">
+        <v>344</v>
+      </c>
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" t="s">
+        <v>345</v>
+      </c>
+      <c r="F60">
+        <v>1053807619</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>3113005998</v>
+      </c>
+      <c r="I60" t="s">
+        <v>346</v>
+      </c>
+      <c r="J60" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>348</v>
+      </c>
+      <c r="B61" t="s">
+        <v>349</v>
+      </c>
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61">
+        <v>10286879</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>3117268025</v>
+      </c>
+      <c r="I61" t="s">
+        <v>350</v>
+      </c>
+      <c r="J61" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>352</v>
+      </c>
+      <c r="B62" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" t="s">
+        <v>265</v>
+      </c>
+      <c r="F62">
+        <v>10245454</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>3117581159</v>
+      </c>
+      <c r="I62" t="s">
+        <v>354</v>
+      </c>
+      <c r="J62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>356</v>
+      </c>
+      <c r="B63" t="s">
+        <v>357</v>
+      </c>
+      <c r="C63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" t="s">
+        <v>358</v>
+      </c>
+      <c r="F63">
+        <v>1053784021</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>3117848943</v>
+      </c>
+      <c r="I63" t="s">
+        <v>359</v>
+      </c>
+      <c r="J63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>360</v>
+      </c>
+      <c r="B64" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" t="s">
+        <v>336</v>
+      </c>
+      <c r="F64">
+        <v>24333588</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>3103898510</v>
+      </c>
+      <c r="I64" t="s">
+        <v>361</v>
+      </c>
+      <c r="J64" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>363</v>
+      </c>
+      <c r="B65" t="s">
+        <v>364</v>
+      </c>
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" t="s">
+        <v>365</v>
+      </c>
+      <c r="F65">
+        <v>30405204</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>3146611226</v>
+      </c>
+      <c r="I65" t="s">
+        <v>366</v>
+      </c>
+      <c r="J65" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>368</v>
+      </c>
+      <c r="B66" t="s">
+        <v>369</v>
+      </c>
+      <c r="C66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66">
+        <v>30321612</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>3135217056</v>
+      </c>
+      <c r="I66" t="s">
+        <v>370</v>
+      </c>
+      <c r="J66" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" t="s">
+        <v>373</v>
+      </c>
+      <c r="C67" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" t="s">
+        <v>215</v>
+      </c>
+      <c r="F67">
+        <v>30310215</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>3176422121</v>
+      </c>
+      <c r="I67" t="s">
+        <v>374</v>
+      </c>
+      <c r="J67" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>376</v>
+      </c>
+      <c r="B68" t="s">
+        <v>377</v>
+      </c>
+      <c r="C68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" t="s">
+        <v>265</v>
+      </c>
+      <c r="F68">
+        <v>6108160</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>3122011383</v>
+      </c>
+      <c r="I68" t="s">
+        <v>378</v>
+      </c>
+      <c r="J68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>379</v>
+      </c>
+      <c r="B69" t="s">
+        <v>380</v>
+      </c>
+      <c r="C69" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" t="s">
+        <v>265</v>
+      </c>
+      <c r="F69">
+        <v>75003878</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>3104681193</v>
+      </c>
+      <c r="I69" t="s">
+        <v>381</v>
+      </c>
+      <c r="J69" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>383</v>
+      </c>
+      <c r="B70" t="s">
+        <v>384</v>
+      </c>
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" t="s">
+        <v>385</v>
+      </c>
+      <c r="F70">
+        <v>1110506666</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>3115183802</v>
+      </c>
+      <c r="I70" t="s">
+        <v>386</v>
+      </c>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>387</v>
+      </c>
+      <c r="B71" t="s">
+        <v>388</v>
+      </c>
+      <c r="C71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71">
+        <v>75097575</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>3107324131</v>
+      </c>
+      <c r="I71" t="s">
+        <v>389</v>
+      </c>
+      <c r="J71" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" t="s">
+        <v>391</v>
+      </c>
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" t="s">
+        <v>244</v>
+      </c>
+      <c r="F72">
+        <v>75096659</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>3207585520</v>
+      </c>
+      <c r="I72" t="s">
+        <v>392</v>
+      </c>
+      <c r="J72" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>394</v>
+      </c>
+      <c r="B73" t="s">
+        <v>395</v>
+      </c>
+      <c r="C73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" t="s">
+        <v>345</v>
+      </c>
+      <c r="F73">
+        <v>75073330</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>3148856871</v>
+      </c>
+      <c r="I73" t="s">
+        <v>396</v>
+      </c>
+      <c r="J73" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>398</v>
+      </c>
+      <c r="B74" t="s">
+        <v>399</v>
+      </c>
+      <c r="C74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" t="s">
+        <v>400</v>
+      </c>
+      <c r="F74">
+        <v>10262514</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>3117733406</v>
+      </c>
+      <c r="I74" t="s">
+        <v>401</v>
+      </c>
+      <c r="J74" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>403</v>
+      </c>
+      <c r="B75" t="s">
+        <v>404</v>
+      </c>
+      <c r="C75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" t="s">
+        <v>298</v>
+      </c>
+      <c r="F75">
+        <v>75088893</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>3127917880</v>
+      </c>
+      <c r="I75" t="s">
+        <v>405</v>
+      </c>
+      <c r="J75" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>407</v>
+      </c>
+      <c r="B76" t="s">
+        <v>408</v>
+      </c>
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" t="s">
+        <v>239</v>
+      </c>
+      <c r="F76">
+        <v>30395470</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>3117157455</v>
+      </c>
+      <c r="I76" t="s">
+        <v>409</v>
+      </c>
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>410</v>
+      </c>
+      <c r="B77" t="s">
+        <v>411</v>
+      </c>
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" t="s">
+        <v>412</v>
+      </c>
+      <c r="F77">
+        <v>16073677</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>3105488749</v>
+      </c>
+      <c r="I77" t="s">
+        <v>413</v>
+      </c>
+      <c r="J77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>415</v>
+      </c>
+      <c r="B78" t="s">
+        <v>416</v>
+      </c>
+      <c r="C78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" t="s">
+        <v>417</v>
+      </c>
+      <c r="F78">
+        <v>42114871</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>3216265294</v>
+      </c>
+      <c r="I78" t="s">
+        <v>418</v>
+      </c>
+      <c r="J78" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>420</v>
+      </c>
+      <c r="B79" t="s">
+        <v>421</v>
+      </c>
+      <c r="C79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79">
+        <v>281463</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>3016877061</v>
+      </c>
+      <c r="I79" t="s">
+        <v>422</v>
+      </c>
+      <c r="J79" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>296</v>
+      </c>
+      <c r="B80" t="s">
+        <v>424</v>
+      </c>
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" t="s">
+        <v>425</v>
+      </c>
+      <c r="F80">
+        <v>75107712</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>3117423635</v>
+      </c>
+      <c r="I80" t="s">
+        <v>426</v>
+      </c>
+      <c r="J80" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>428</v>
+      </c>
+      <c r="B81" t="s">
+        <v>429</v>
+      </c>
+      <c r="C81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" t="s">
+        <v>430</v>
+      </c>
+      <c r="F81">
+        <v>1053806513</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>3166098393</v>
+      </c>
+      <c r="I81" t="s">
+        <v>431</v>
+      </c>
+      <c r="J81" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>433</v>
+      </c>
+      <c r="B82" t="s">
+        <v>434</v>
+      </c>
+      <c r="C82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" t="s">
+        <v>345</v>
+      </c>
+      <c r="F82">
+        <v>75072443</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>3115858811</v>
+      </c>
+      <c r="I82" t="s">
+        <v>435</v>
+      </c>
+      <c r="J82" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>437</v>
+      </c>
+      <c r="B83" t="s">
+        <v>438</v>
+      </c>
+      <c r="C83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" t="s">
+        <v>215</v>
+      </c>
+      <c r="F83">
+        <v>31570114</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>3123042862</v>
+      </c>
+      <c r="I83" t="s">
+        <v>439</v>
+      </c>
+      <c r="J83" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>441</v>
+      </c>
+      <c r="B84" t="s">
+        <v>442</v>
+      </c>
+      <c r="C84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" t="s">
+        <v>270</v>
+      </c>
+      <c r="F84">
+        <v>7534711</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>3164494488</v>
+      </c>
+      <c r="I84" t="s">
+        <v>443</v>
+      </c>
+      <c r="J84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>444</v>
+      </c>
+      <c r="B85" t="s">
+        <v>445</v>
+      </c>
+      <c r="C85" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" t="s">
+        <v>336</v>
+      </c>
+      <c r="F85">
+        <v>24347071</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>3113756986</v>
+      </c>
+      <c r="I85" t="s">
+        <v>446</v>
+      </c>
+      <c r="J85" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" t="s">
+        <v>448</v>
+      </c>
+      <c r="C86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" t="s">
+        <v>336</v>
+      </c>
+      <c r="F86">
+        <v>30232108</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>3007736768</v>
+      </c>
+      <c r="I86" t="s">
+        <v>449</v>
+      </c>
+      <c r="J86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>450</v>
+      </c>
+      <c r="B87" t="s">
+        <v>451</v>
+      </c>
+      <c r="C87" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" t="s">
+        <v>298</v>
+      </c>
+      <c r="F87">
+        <v>75096428</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>3214514010</v>
+      </c>
+      <c r="I87" t="s">
+        <v>452</v>
+      </c>
+      <c r="J87" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>454</v>
+      </c>
+      <c r="B88" t="s">
+        <v>455</v>
+      </c>
+      <c r="C88" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" t="s">
+        <v>417</v>
+      </c>
+      <c r="F88">
+        <v>27451978</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>3113684029</v>
+      </c>
+      <c r="I88" t="s">
+        <v>456</v>
+      </c>
+      <c r="J88" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>458</v>
+      </c>
+      <c r="B89" t="s">
+        <v>459</v>
+      </c>
+      <c r="C89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" t="s">
+        <v>234</v>
+      </c>
+      <c r="F89">
+        <v>1053780547</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>3108406371</v>
+      </c>
+      <c r="I89" t="s">
+        <v>460</v>
+      </c>
+      <c r="J89" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>462</v>
+      </c>
+      <c r="B90" t="s">
+        <v>463</v>
+      </c>
+      <c r="C90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" t="s">
+        <v>209</v>
+      </c>
+      <c r="F90">
+        <v>1053800692</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>3128820955</v>
+      </c>
+      <c r="I90" t="s">
+        <v>464</v>
+      </c>
+      <c r="J90" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>466</v>
+      </c>
+      <c r="B91" t="s">
+        <v>467</v>
+      </c>
+      <c r="C91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" t="s">
+        <v>468</v>
+      </c>
+      <c r="F91">
+        <v>80870811</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>3103209980</v>
+      </c>
+      <c r="I91" t="s">
+        <v>469</v>
+      </c>
+      <c r="J91" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>471</v>
+      </c>
+      <c r="B92" t="s">
+        <v>472</v>
+      </c>
+      <c r="C92" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" t="s">
+        <v>104</v>
+      </c>
+      <c r="E92" t="s">
+        <v>473</v>
+      </c>
+      <c r="F92">
+        <v>75034645</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>3205245495</v>
+      </c>
+      <c r="I92" t="s">
+        <v>474</v>
+      </c>
+      <c r="J92" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1" display="camilo@mail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -806,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -836,13 +4927,13 @@
         <v>79</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>80</v>
@@ -1990,10 +6081,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,44 +6094,625 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" t="s">
+        <v>478</v>
+      </c>
+      <c r="E7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" t="s">
+        <v>478</v>
+      </c>
+      <c r="E9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E10" t="s">
+        <v>479</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>494</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" t="s">
+        <v>478</v>
+      </c>
+      <c r="E12" t="s">
+        <v>479</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>495</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E13" t="s">
+        <v>479</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" t="s">
+        <v>478</v>
+      </c>
+      <c r="E14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F14">
+        <v>300</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>487</v>
+      </c>
+      <c r="D15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E15" t="s">
+        <v>479</v>
+      </c>
+      <c r="F15">
+        <v>350</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>500</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>501</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>477</v>
+      </c>
+      <c r="D17" t="s">
+        <v>478</v>
+      </c>
+      <c r="E17" t="s">
+        <v>479</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>502</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>487</v>
+      </c>
+      <c r="D18" t="s">
+        <v>478</v>
+      </c>
+      <c r="E18" t="s">
+        <v>479</v>
+      </c>
+      <c r="F18">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>487</v>
+      </c>
+      <c r="D19" t="s">
+        <v>478</v>
+      </c>
+      <c r="E19" t="s">
+        <v>479</v>
+      </c>
+      <c r="F19">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2">
-        <v>90</v>
+      <c r="G19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>505</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>487</v>
+      </c>
+      <c r="D20" t="s">
+        <v>478</v>
+      </c>
+      <c r="E20" t="s">
+        <v>479</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>506</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>487</v>
+      </c>
+      <c r="D21" t="s">
+        <v>478</v>
+      </c>
+      <c r="E21" t="s">
+        <v>479</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>508</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>487</v>
+      </c>
+      <c r="D22" t="s">
+        <v>478</v>
+      </c>
+      <c r="E22" t="s">
+        <v>479</v>
+      </c>
+      <c r="F22">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>509</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>487</v>
+      </c>
+      <c r="D23" t="s">
+        <v>478</v>
+      </c>
+      <c r="E23" t="s">
+        <v>479</v>
+      </c>
+      <c r="F23">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>511</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D24" t="s">
+        <v>478</v>
+      </c>
+      <c r="E24" t="s">
+        <v>479</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>477</v>
+      </c>
+      <c r="D25" t="s">
+        <v>478</v>
+      </c>
+      <c r="E25" t="s">
+        <v>479</v>
+      </c>
+      <c r="F25">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>513</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>487</v>
+      </c>
+      <c r="D26" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26" t="s">
+        <v>479</v>
+      </c>
+      <c r="F26">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>514</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>487</v>
+      </c>
+      <c r="D27" t="s">
+        <v>478</v>
+      </c>
+      <c r="E27" t="s">
+        <v>479</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Libro1 - Terminado.xlsx
+++ b/Libro1 - Terminado.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natsu\Desktop\proyectoalmacen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\almacen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="516">
   <si>
     <t>analisis y desarrollo de sistemas de informacion</t>
   </si>
@@ -1572,12 +1572,15 @@
   </si>
   <si>
     <t>tecnoparque procesos industriales</t>
+  </si>
+  <si>
+    <t>/images/sin_foto.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -6084,7 +6087,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G27"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6160,7 +6163,7 @@
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6183,7 +6186,7 @@
         <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6206,7 +6209,7 @@
         <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6229,7 +6232,7 @@
         <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6275,7 +6278,7 @@
         <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6344,7 +6347,7 @@
         <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -6367,7 +6370,7 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -6413,7 +6416,7 @@
         <v>300</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6436,7 +6439,7 @@
         <v>350</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6459,7 +6462,7 @@
         <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6482,7 +6485,7 @@
         <v>1000</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6505,7 +6508,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6551,7 +6554,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6597,7 +6600,7 @@
         <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6666,7 +6669,7 @@
         <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6689,7 +6692,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6712,7 +6715,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/Libro1 - Terminado.xlsx
+++ b/Libro1 - Terminado.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructores" sheetId="3" r:id="rId1"/>
     <sheet name="Fichas" sheetId="1" r:id="rId2"/>
-    <sheet name="Ambientes" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="470">
   <si>
     <t>analisis y desarrollo de sistemas de informacion</t>
   </si>
@@ -308,24 +307,6 @@
   </si>
   <si>
     <t>FECHA INICIAL</t>
-  </si>
-  <si>
-    <t>NOMBRE AMBIENTE</t>
-  </si>
-  <si>
-    <t>CENTRO</t>
-  </si>
-  <si>
-    <t>TIPO AMBIENTE</t>
-  </si>
-  <si>
-    <t>MOVILIDAD</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>CUPO</t>
   </si>
   <si>
     <t>IMAGEN</t>
@@ -1455,126 +1436,6 @@
   </si>
   <si>
     <t>/images/instructors/1503686351.png</t>
-  </si>
-  <si>
-    <t>sistemas 1</t>
-  </si>
-  <si>
-    <t>aula</t>
-  </si>
-  <si>
-    <t>fijo</t>
-  </si>
-  <si>
-    <t>activo</t>
-  </si>
-  <si>
-    <t>/images/classrooms/1504550912.jpeg</t>
-  </si>
-  <si>
-    <t>sistemas 2</t>
-  </si>
-  <si>
-    <t>ambiente lego</t>
-  </si>
-  <si>
-    <t>auditorio procesos industriales y construccion</t>
-  </si>
-  <si>
-    <t>auditorio</t>
-  </si>
-  <si>
-    <t>autocad</t>
-  </si>
-  <si>
-    <t>laboratorio</t>
-  </si>
-  <si>
-    <t>taller</t>
-  </si>
-  <si>
-    <t>/images/classrooms/1504551162.jpeg</t>
-  </si>
-  <si>
-    <t>diesel</t>
-  </si>
-  <si>
-    <t>/images/classrooms/1504551074.jpeg</t>
-  </si>
-  <si>
-    <t>electricidad 1</t>
-  </si>
-  <si>
-    <t>/images/classrooms/1504551125.jpeg</t>
-  </si>
-  <si>
-    <t>electricidad 2</t>
-  </si>
-  <si>
-    <t>electricidad 3</t>
-  </si>
-  <si>
-    <t>electricidad 4</t>
-  </si>
-  <si>
-    <t>/images/classrooms/1504551139.jpeg</t>
-  </si>
-  <si>
-    <t>espacio deportivo para la practica del futbol baloncesto voleibol</t>
-  </si>
-  <si>
-    <t>campo deportivo</t>
-  </si>
-  <si>
-    <t>espacio para trabajo en alturas</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>gimnasio regional caldas</t>
-  </si>
-  <si>
-    <t>maderas</t>
-  </si>
-  <si>
-    <t>mantenimiento</t>
-  </si>
-  <si>
-    <t>/images/classrooms/1504551272.jpeg</t>
-  </si>
-  <si>
-    <t>mecanizado</t>
-  </si>
-  <si>
-    <t>metalografia</t>
-  </si>
-  <si>
-    <t>/images/classrooms/1504551180.jpeg</t>
-  </si>
-  <si>
-    <t>motos cpi</t>
-  </si>
-  <si>
-    <t>refrigeracion</t>
-  </si>
-  <si>
-    <t>/images/classrooms/1504551226.jpeg</t>
-  </si>
-  <si>
-    <t>sistemas 3</t>
-  </si>
-  <si>
-    <t>/images/classrooms/1504551213.jpeg</t>
-  </si>
-  <si>
-    <t>soldadura</t>
-  </si>
-  <si>
-    <t>tecnoparque procesos industriales</t>
-  </si>
-  <si>
-    <t>/images/sin_foto.png</t>
   </si>
 </sst>
 </file>
@@ -1973,24 +1834,24 @@
         <v>90</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F2">
         <v>7684828</v>
@@ -2002,27 +1863,27 @@
         <v>3148515827</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
         <v>104</v>
-      </c>
-      <c r="E3" t="s">
-        <v>110</v>
       </c>
       <c r="F3">
         <v>75091846</v>
@@ -2034,27 +1895,27 @@
         <v>3014160504</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F4">
         <v>24318223</v>
@@ -2066,27 +1927,27 @@
         <v>3113076751</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F5">
         <v>16071103</v>
@@ -2098,27 +1959,27 @@
         <v>3136501532</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F6">
         <v>75096903</v>
@@ -2130,27 +1991,27 @@
         <v>3163965678</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F7">
         <v>75064699</v>
@@ -2162,27 +2023,27 @@
         <v>3117385100</v>
       </c>
       <c r="I7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F8">
         <v>10232014</v>
@@ -2194,27 +2055,27 @@
         <v>3122588689</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F9">
         <v>10243995</v>
@@ -2226,27 +2087,27 @@
         <v>3104707065</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F10">
         <v>10279010</v>
@@ -2258,27 +2119,27 @@
         <v>3137656579</v>
       </c>
       <c r="I10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>10286761</v>
@@ -2290,27 +2151,27 @@
         <v>3136443404</v>
       </c>
       <c r="I11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F12">
         <v>10274114</v>
@@ -2322,27 +2183,27 @@
         <v>3147392470</v>
       </c>
       <c r="I12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F13">
         <v>10279373</v>
@@ -2354,27 +2215,27 @@
         <v>3103598404</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F14">
         <v>10279651</v>
@@ -2386,27 +2247,27 @@
         <v>3117784659</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F15">
         <v>10241219</v>
@@ -2418,27 +2279,27 @@
         <v>3122972801</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F16">
         <v>10271981</v>
@@ -2450,27 +2311,27 @@
         <v>3217068789</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F17">
         <v>79274609</v>
@@ -2482,27 +2343,27 @@
         <v>3137169379</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F18">
         <v>94283555</v>
@@ -2514,27 +2375,27 @@
         <v>3122430542</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F19">
         <v>10286847</v>
@@ -2546,27 +2407,27 @@
         <v>3108326255</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F20">
         <v>15903478</v>
@@ -2578,27 +2439,27 @@
         <v>3137485587</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F21">
         <v>25232397</v>
@@ -2610,27 +2471,27 @@
         <v>3113851917</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F22">
         <v>30287195</v>
@@ -2642,27 +2503,27 @@
         <v>3104931245</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J22" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F23">
         <v>10248388</v>
@@ -2674,27 +2535,27 @@
         <v>3002024140</v>
       </c>
       <c r="I23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F24">
         <v>30292725</v>
@@ -2706,27 +2567,27 @@
         <v>3168756222</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F25">
         <v>9817289</v>
@@ -2738,27 +2599,27 @@
         <v>3137086769</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J25" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F26">
         <v>30394952</v>
@@ -2770,27 +2631,27 @@
         <v>3105312798</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F27">
         <v>75089861</v>
@@ -2802,27 +2663,27 @@
         <v>3108223340</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F28">
         <v>75103320</v>
@@ -2834,27 +2695,27 @@
         <v>3217369989</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E29" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F29">
         <v>30336710</v>
@@ -2866,27 +2727,27 @@
         <v>3108491154</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F30">
         <v>10250071</v>
@@ -2898,27 +2759,27 @@
         <v>3206307217</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F31">
         <v>30392935</v>
@@ -2930,27 +2791,27 @@
         <v>3003108170</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F32">
         <v>24334576</v>
@@ -2962,27 +2823,27 @@
         <v>3134623938</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J32" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F33">
         <v>30322042</v>
@@ -2994,27 +2855,27 @@
         <v>3116827825</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F34">
         <v>24340753</v>
@@ -3026,27 +2887,27 @@
         <v>3147917762</v>
       </c>
       <c r="I34" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J34" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F35">
         <v>9975428</v>
@@ -3058,27 +2919,27 @@
         <v>3113681557</v>
       </c>
       <c r="I35" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J35" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F36">
         <v>30396241</v>
@@ -3090,27 +2951,27 @@
         <v>3176547111</v>
       </c>
       <c r="I36" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J36" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F37">
         <v>30270825</v>
@@ -3122,27 +2983,27 @@
         <v>3162559047</v>
       </c>
       <c r="I37" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J37" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F38">
         <v>24335083</v>
@@ -3154,27 +3015,27 @@
         <v>3146264428</v>
       </c>
       <c r="I38" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J38" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
         <v>255</v>
-      </c>
-      <c r="B39" t="s">
-        <v>260</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" t="s">
-        <v>214</v>
-      </c>
-      <c r="E39" t="s">
-        <v>261</v>
       </c>
       <c r="F39">
         <v>30396654</v>
@@ -3186,27 +3047,27 @@
         <v>3104329906</v>
       </c>
       <c r="I39" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F40">
         <v>10285068</v>
@@ -3218,27 +3079,27 @@
         <v>3152735162</v>
       </c>
       <c r="I40" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J40" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F41">
         <v>9859602</v>
@@ -3250,27 +3111,27 @@
         <v>3103972370</v>
       </c>
       <c r="I41" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J41" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F42">
         <v>75081636</v>
@@ -3282,27 +3143,27 @@
         <v>3113837172</v>
       </c>
       <c r="I42" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J42" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F43">
         <v>1053782472</v>
@@ -3314,27 +3175,27 @@
         <v>3003267169</v>
       </c>
       <c r="I43" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J43" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F44">
         <v>75096299</v>
@@ -3346,27 +3207,27 @@
         <v>3146504873</v>
       </c>
       <c r="I44" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J44" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F45">
         <v>30397958</v>
@@ -3378,27 +3239,27 @@
         <v>3163244180</v>
       </c>
       <c r="I45" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B46" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F46">
         <v>1085297027</v>
@@ -3410,27 +3271,27 @@
         <v>3128488679</v>
       </c>
       <c r="I46" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B47" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F47">
         <v>30395126</v>
@@ -3442,27 +3303,27 @@
         <v>3147694939</v>
       </c>
       <c r="I47" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J47" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B48" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F48">
         <v>75090879</v>
@@ -3474,27 +3335,27 @@
         <v>3206874025</v>
       </c>
       <c r="I48" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J48" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F49">
         <v>30307343</v>
@@ -3506,27 +3367,27 @@
         <v>3113364387</v>
       </c>
       <c r="I49" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="J49" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F50">
         <v>79836769</v>
@@ -3538,27 +3399,27 @@
         <v>3185272465</v>
       </c>
       <c r="I50" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="J50" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B51" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F51">
         <v>11224476</v>
@@ -3570,27 +3431,27 @@
         <v>3008115106</v>
       </c>
       <c r="I51" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J51" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F52">
         <v>30338297</v>
@@ -3602,27 +3463,27 @@
         <v>3176171144</v>
       </c>
       <c r="I52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F53">
         <v>98392877</v>
@@ -3634,27 +3495,27 @@
         <v>3162860686</v>
       </c>
       <c r="I53" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J53" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F54">
         <v>1053782759</v>
@@ -3666,27 +3527,27 @@
         <v>3128850805</v>
       </c>
       <c r="I54" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J54" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B55" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F55">
         <v>1053770404</v>
@@ -3698,27 +3559,27 @@
         <v>3015739296</v>
       </c>
       <c r="I55" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J55" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F56">
         <v>30398681</v>
@@ -3730,27 +3591,27 @@
         <v>3008948200</v>
       </c>
       <c r="I56" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J56" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B57" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F57">
         <v>16077061</v>
@@ -3762,27 +3623,27 @@
         <v>3206845171</v>
       </c>
       <c r="I57" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J57" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F58">
         <v>1053811426</v>
@@ -3794,27 +3655,27 @@
         <v>3045458490</v>
       </c>
       <c r="I58" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J58" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B59" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E59" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F59">
         <v>1053777708</v>
@@ -3826,27 +3687,27 @@
         <v>3163159109</v>
       </c>
       <c r="I59" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J59" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B60" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F60">
         <v>1053807619</v>
@@ -3858,27 +3719,27 @@
         <v>3113005998</v>
       </c>
       <c r="I60" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J60" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B61" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F61">
         <v>10286879</v>
@@ -3890,27 +3751,27 @@
         <v>3117268025</v>
       </c>
       <c r="I61" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J61" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B62" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F62">
         <v>10245454</v>
@@ -3922,27 +3783,27 @@
         <v>3117581159</v>
       </c>
       <c r="I62" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J62" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B63" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E63" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F63">
         <v>1053784021</v>
@@ -3954,27 +3815,27 @@
         <v>3117848943</v>
       </c>
       <c r="I63" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J63" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E64" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F64">
         <v>24333588</v>
@@ -3986,27 +3847,27 @@
         <v>3103898510</v>
       </c>
       <c r="I64" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J64" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B65" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E65" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F65">
         <v>30405204</v>
@@ -4018,27 +3879,27 @@
         <v>3146611226</v>
       </c>
       <c r="I65" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J65" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B66" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E66" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F66">
         <v>30321612</v>
@@ -4050,27 +3911,27 @@
         <v>3135217056</v>
       </c>
       <c r="I66" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J66" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B67" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F67">
         <v>30310215</v>
@@ -4082,27 +3943,27 @@
         <v>3176422121</v>
       </c>
       <c r="I67" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="J67" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B68" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E68" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F68">
         <v>6108160</v>
@@ -4114,27 +3975,27 @@
         <v>3122011383</v>
       </c>
       <c r="I68" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J68" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E69" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F69">
         <v>75003878</v>
@@ -4146,27 +4007,27 @@
         <v>3104681193</v>
       </c>
       <c r="I69" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J69" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B70" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F70">
         <v>1110506666</v>
@@ -4178,27 +4039,27 @@
         <v>3115183802</v>
       </c>
       <c r="I70" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="J70" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B71" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E71" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F71">
         <v>75097575</v>
@@ -4210,27 +4071,27 @@
         <v>3107324131</v>
       </c>
       <c r="I71" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J71" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E72" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F72">
         <v>75096659</v>
@@ -4242,27 +4103,27 @@
         <v>3207585520</v>
       </c>
       <c r="I72" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="J72" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B73" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E73" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F73">
         <v>75073330</v>
@@ -4274,27 +4135,27 @@
         <v>3148856871</v>
       </c>
       <c r="I73" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="J73" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B74" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E74" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F74">
         <v>10262514</v>
@@ -4306,27 +4167,27 @@
         <v>3117733406</v>
       </c>
       <c r="I74" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J74" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B75" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E75" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F75">
         <v>75088893</v>
@@ -4338,27 +4199,27 @@
         <v>3127917880</v>
       </c>
       <c r="I75" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J75" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B76" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E76" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F76">
         <v>30395470</v>
@@ -4370,27 +4231,27 @@
         <v>3117157455</v>
       </c>
       <c r="I76" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="J76" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B77" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E77" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F77">
         <v>16073677</v>
@@ -4402,27 +4263,27 @@
         <v>3105488749</v>
       </c>
       <c r="I77" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="J77" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B78" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E78" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F78">
         <v>42114871</v>
@@ -4434,27 +4295,27 @@
         <v>3216265294</v>
       </c>
       <c r="I78" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J78" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B79" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E79" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F79">
         <v>281463</v>
@@ -4466,27 +4327,27 @@
         <v>3016877061</v>
       </c>
       <c r="I79" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="J79" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B80" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E80" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F80">
         <v>75107712</v>
@@ -4498,27 +4359,27 @@
         <v>3117423635</v>
       </c>
       <c r="I80" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="J80" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B81" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F81">
         <v>1053806513</v>
@@ -4530,27 +4391,27 @@
         <v>3166098393</v>
       </c>
       <c r="I81" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J81" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B82" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E82" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F82">
         <v>75072443</v>
@@ -4562,27 +4423,27 @@
         <v>3115858811</v>
       </c>
       <c r="I82" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="J82" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B83" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D83" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F83">
         <v>31570114</v>
@@ -4594,27 +4455,27 @@
         <v>3123042862</v>
       </c>
       <c r="I83" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J83" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B84" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E84" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F84">
         <v>7534711</v>
@@ -4626,27 +4487,27 @@
         <v>3164494488</v>
       </c>
       <c r="I84" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="J84" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B85" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D85" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E85" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F85">
         <v>24347071</v>
@@ -4658,27 +4519,27 @@
         <v>3113756986</v>
       </c>
       <c r="I85" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="J85" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B86" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D86" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E86" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F86">
         <v>30232108</v>
@@ -4690,27 +4551,27 @@
         <v>3007736768</v>
       </c>
       <c r="I86" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="J86" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B87" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E87" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F87">
         <v>75096428</v>
@@ -4722,27 +4583,27 @@
         <v>3214514010</v>
       </c>
       <c r="I87" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J87" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B88" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E88" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F88">
         <v>27451978</v>
@@ -4754,27 +4615,27 @@
         <v>3113684029</v>
       </c>
       <c r="I88" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="J88" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B89" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E89" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F89">
         <v>1053780547</v>
@@ -4786,27 +4647,27 @@
         <v>3108406371</v>
       </c>
       <c r="I89" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="J89" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B90" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D90" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F90">
         <v>1053800692</v>
@@ -4818,27 +4679,27 @@
         <v>3128820955</v>
       </c>
       <c r="I90" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J90" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B91" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D91" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E91" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F91">
         <v>80870811</v>
@@ -4850,27 +4711,27 @@
         <v>3103209980</v>
       </c>
       <c r="I91" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J91" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B92" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E92" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F92">
         <v>75034645</v>
@@ -4882,10 +4743,10 @@
         <v>3205245495</v>
       </c>
       <c r="I92" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J92" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -4900,7 +4761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -6080,646 +5941,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F2">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>477</v>
-      </c>
-      <c r="D3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>482</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>477</v>
-      </c>
-      <c r="D4" t="s">
-        <v>478</v>
-      </c>
-      <c r="E4" t="s">
-        <v>479</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D5" t="s">
-        <v>478</v>
-      </c>
-      <c r="E5" t="s">
-        <v>479</v>
-      </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-      <c r="G5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>486</v>
-      </c>
-      <c r="D6" t="s">
-        <v>478</v>
-      </c>
-      <c r="E6" t="s">
-        <v>479</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>487</v>
-      </c>
-      <c r="D7" t="s">
-        <v>478</v>
-      </c>
-      <c r="E7" t="s">
-        <v>479</v>
-      </c>
-      <c r="F7">
-        <v>90</v>
-      </c>
-      <c r="G7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>487</v>
-      </c>
-      <c r="D8" t="s">
-        <v>478</v>
-      </c>
-      <c r="E8" t="s">
-        <v>479</v>
-      </c>
-      <c r="F8">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>487</v>
-      </c>
-      <c r="D9" t="s">
-        <v>478</v>
-      </c>
-      <c r="E9" t="s">
-        <v>479</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>491</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>487</v>
-      </c>
-      <c r="D10" t="s">
-        <v>478</v>
-      </c>
-      <c r="E10" t="s">
-        <v>479</v>
-      </c>
-      <c r="F10">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>487</v>
-      </c>
-      <c r="D11" t="s">
-        <v>478</v>
-      </c>
-      <c r="E11" t="s">
-        <v>479</v>
-      </c>
-      <c r="F11">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>494</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>477</v>
-      </c>
-      <c r="D12" t="s">
-        <v>478</v>
-      </c>
-      <c r="E12" t="s">
-        <v>479</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>495</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>487</v>
-      </c>
-      <c r="D13" t="s">
-        <v>478</v>
-      </c>
-      <c r="E13" t="s">
-        <v>479</v>
-      </c>
-      <c r="F13">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>497</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>498</v>
-      </c>
-      <c r="D14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E14" t="s">
-        <v>479</v>
-      </c>
-      <c r="F14">
-        <v>300</v>
-      </c>
-      <c r="G14" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>499</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>487</v>
-      </c>
-      <c r="D15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E15" t="s">
-        <v>479</v>
-      </c>
-      <c r="F15">
-        <v>350</v>
-      </c>
-      <c r="G15" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>500</v>
-      </c>
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D16" t="s">
-        <v>478</v>
-      </c>
-      <c r="E16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>501</v>
-      </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>477</v>
-      </c>
-      <c r="D17" t="s">
-        <v>478</v>
-      </c>
-      <c r="E17" t="s">
-        <v>479</v>
-      </c>
-      <c r="F17">
-        <v>1000</v>
-      </c>
-      <c r="G17" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>502</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D18" t="s">
-        <v>478</v>
-      </c>
-      <c r="E18" t="s">
-        <v>479</v>
-      </c>
-      <c r="F18">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>503</v>
-      </c>
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" t="s">
-        <v>487</v>
-      </c>
-      <c r="D19" t="s">
-        <v>478</v>
-      </c>
-      <c r="E19" t="s">
-        <v>479</v>
-      </c>
-      <c r="F19">
-        <v>105</v>
-      </c>
-      <c r="G19" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>505</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>487</v>
-      </c>
-      <c r="D20" t="s">
-        <v>478</v>
-      </c>
-      <c r="E20" t="s">
-        <v>479</v>
-      </c>
-      <c r="F20">
-        <v>80</v>
-      </c>
-      <c r="G20" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>506</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" t="s">
-        <v>487</v>
-      </c>
-      <c r="D21" t="s">
-        <v>478</v>
-      </c>
-      <c r="E21" t="s">
-        <v>479</v>
-      </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-      <c r="G21" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>508</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>487</v>
-      </c>
-      <c r="D22" t="s">
-        <v>478</v>
-      </c>
-      <c r="E22" t="s">
-        <v>479</v>
-      </c>
-      <c r="F22">
-        <v>60</v>
-      </c>
-      <c r="G22" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>509</v>
-      </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>487</v>
-      </c>
-      <c r="D23" t="s">
-        <v>478</v>
-      </c>
-      <c r="E23" t="s">
-        <v>479</v>
-      </c>
-      <c r="F23">
-        <v>60</v>
-      </c>
-      <c r="G23" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>511</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>477</v>
-      </c>
-      <c r="D24" t="s">
-        <v>478</v>
-      </c>
-      <c r="E24" t="s">
-        <v>479</v>
-      </c>
-      <c r="F24">
-        <v>50</v>
-      </c>
-      <c r="G24" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>477</v>
-      </c>
-      <c r="D25" t="s">
-        <v>478</v>
-      </c>
-      <c r="E25" t="s">
-        <v>479</v>
-      </c>
-      <c r="F25">
-        <v>70</v>
-      </c>
-      <c r="G25" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>513</v>
-      </c>
-      <c r="B26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" t="s">
-        <v>487</v>
-      </c>
-      <c r="D26" t="s">
-        <v>478</v>
-      </c>
-      <c r="E26" t="s">
-        <v>479</v>
-      </c>
-      <c r="F26">
-        <v>75</v>
-      </c>
-      <c r="G26" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>514</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>487</v>
-      </c>
-      <c r="D27" t="s">
-        <v>478</v>
-      </c>
-      <c r="E27" t="s">
-        <v>479</v>
-      </c>
-      <c r="F27">
-        <v>50</v>
-      </c>
-      <c r="G27" t="s">
-        <v>515</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Libro1 - Terminado.xlsx
+++ b/Libro1 - Terminado.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Instructores" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="469">
   <si>
     <t>analisis y desarrollo de sistemas de informacion</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t>grajales perez</t>
-  </si>
-  <si>
-    <t>planta selected="selected"</t>
   </si>
   <si>
     <t>instructor g-11 mantenimiento</t>
@@ -1792,14 +1789,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
@@ -1976,10 +1973,10 @@
         <v>97</v>
       </c>
       <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
         <v>116</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
       </c>
       <c r="F6">
         <v>75096903</v>
@@ -1991,27 +1988,27 @@
         <v>3163965678</v>
       </c>
       <c r="I6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" t="s">
         <v>118</v>
-      </c>
-      <c r="J6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
         <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>122</v>
       </c>
       <c r="F7">
         <v>75064699</v>
@@ -2023,7 +2020,7 @@
         <v>3117385100</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
         <v>101</v>
@@ -2031,19 +2028,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
         <v>124</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
         <v>125</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" t="s">
-        <v>126</v>
       </c>
       <c r="F8">
         <v>10232014</v>
@@ -2055,7 +2052,7 @@
         <v>3122588689</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J8" t="s">
         <v>101</v>
@@ -2063,19 +2060,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
         <v>128</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
         <v>129</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" t="s">
-        <v>130</v>
       </c>
       <c r="F9">
         <v>10243995</v>
@@ -2087,27 +2084,27 @@
         <v>3104707065</v>
       </c>
       <c r="I9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" t="s">
         <v>131</v>
-      </c>
-      <c r="J9" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
         <v>133</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
         <v>134</v>
-      </c>
-      <c r="C10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" t="s">
-        <v>135</v>
       </c>
       <c r="F10">
         <v>10279010</v>
@@ -2119,7 +2116,7 @@
         <v>3137656579</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J10" t="s">
         <v>101</v>
@@ -2127,19 +2124,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
         <v>137</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
         <v>138</v>
-      </c>
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" t="s">
-        <v>139</v>
       </c>
       <c r="F11">
         <v>10286761</v>
@@ -2151,7 +2148,7 @@
         <v>3136443404</v>
       </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
         <v>101</v>
@@ -2159,19 +2156,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
         <v>141</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" t="s">
-        <v>142</v>
       </c>
       <c r="F12">
         <v>10274114</v>
@@ -2183,7 +2180,7 @@
         <v>3147392470</v>
       </c>
       <c r="I12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
         <v>101</v>
@@ -2191,11 +2188,11 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
         <v>144</v>
       </c>
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
       <c r="C13" t="s">
         <v>97</v>
       </c>
@@ -2203,7 +2200,7 @@
         <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13">
         <v>10279373</v>
@@ -2215,7 +2212,7 @@
         <v>3103598404</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
         <v>101</v>
@@ -2223,19 +2220,19 @@
     </row>
     <row r="14" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
         <v>147</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="C14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="F14">
         <v>10279651</v>
@@ -2247,7 +2244,7 @@
         <v>3117784659</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
         <v>101</v>
@@ -2255,19 +2252,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
         <v>151</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
         <v>152</v>
-      </c>
-      <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" t="s">
-        <v>153</v>
       </c>
       <c r="F15">
         <v>10241219</v>
@@ -2279,7 +2276,7 @@
         <v>3122972801</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
         <v>101</v>
@@ -2287,19 +2284,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
         <v>155</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
         <v>156</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>157</v>
       </c>
       <c r="F16">
         <v>10271981</v>
@@ -2311,7 +2308,7 @@
         <v>3217068789</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
         <v>101</v>
@@ -2319,19 +2316,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" t="s">
         <v>159</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
         <v>160</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>161</v>
       </c>
       <c r="F17">
         <v>79274609</v>
@@ -2343,7 +2340,7 @@
         <v>3137169379</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
         <v>101</v>
@@ -2351,19 +2348,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
         <v>163</v>
-      </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" t="s">
-        <v>164</v>
       </c>
       <c r="F18">
         <v>94283555</v>
@@ -2375,7 +2372,7 @@
         <v>3122430542</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
         <v>101</v>
@@ -2383,19 +2380,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
         <v>166</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" t="s">
-        <v>167</v>
       </c>
       <c r="F19">
         <v>10286847</v>
@@ -2407,7 +2404,7 @@
         <v>3108326255</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
         <v>101</v>
@@ -2415,19 +2412,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
         <v>169</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
         <v>170</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" t="s">
-        <v>171</v>
       </c>
       <c r="F20">
         <v>15903478</v>
@@ -2439,7 +2436,7 @@
         <v>3137485587</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
         <v>101</v>
@@ -2447,19 +2444,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" t="s">
         <v>173</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
         <v>174</v>
-      </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" t="s">
-        <v>175</v>
       </c>
       <c r="F21">
         <v>25232397</v>
@@ -2471,7 +2468,7 @@
         <v>3113851917</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J21" t="s">
         <v>101</v>
@@ -2479,19 +2476,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" t="s">
         <v>177</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
         <v>178</v>
-      </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" t="s">
-        <v>179</v>
       </c>
       <c r="F22">
         <v>30287195</v>
@@ -2503,7 +2500,7 @@
         <v>3104931245</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
         <v>101</v>
@@ -2511,19 +2508,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
         <v>181</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
         <v>182</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" t="s">
-        <v>183</v>
       </c>
       <c r="F23">
         <v>10248388</v>
@@ -2535,7 +2532,7 @@
         <v>3002024140</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
         <v>101</v>
@@ -2543,19 +2540,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
         <v>185</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
         <v>186</v>
-      </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" t="s">
-        <v>187</v>
       </c>
       <c r="F24">
         <v>30292725</v>
@@ -2567,7 +2564,7 @@
         <v>3168756222</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J24" t="s">
         <v>101</v>
@@ -2575,19 +2572,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" t="s">
         <v>189</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
         <v>190</v>
-      </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" t="s">
-        <v>191</v>
       </c>
       <c r="F25">
         <v>9817289</v>
@@ -2599,7 +2596,7 @@
         <v>3137086769</v>
       </c>
       <c r="I25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J25" t="s">
         <v>101</v>
@@ -2607,19 +2604,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" t="s">
         <v>193</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
         <v>194</v>
-      </c>
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" t="s">
-        <v>195</v>
       </c>
       <c r="F26">
         <v>30394952</v>
@@ -2631,7 +2628,7 @@
         <v>3105312798</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J26" t="s">
         <v>101</v>
@@ -2639,19 +2636,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
         <v>197</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
         <v>198</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" t="s">
-        <v>199</v>
       </c>
       <c r="F27">
         <v>75089861</v>
@@ -2663,7 +2660,7 @@
         <v>3108223340</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J27" t="s">
         <v>101</v>
@@ -2671,19 +2668,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" t="s">
         <v>201</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
         <v>202</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" t="s">
-        <v>203</v>
       </c>
       <c r="F28">
         <v>75103320</v>
@@ -2695,27 +2692,27 @@
         <v>3217369989</v>
       </c>
       <c r="I28" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" t="s">
         <v>204</v>
-      </c>
-      <c r="J28" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" t="s">
         <v>206</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
         <v>207</v>
       </c>
-      <c r="C29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>208</v>
-      </c>
-      <c r="E29" t="s">
-        <v>209</v>
       </c>
       <c r="F29">
         <v>30336710</v>
@@ -2727,7 +2724,7 @@
         <v>3108491154</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J29" t="s">
         <v>101</v>
@@ -2735,19 +2732,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" t="s">
         <v>211</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
         <v>212</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" t="s">
-        <v>213</v>
       </c>
       <c r="F30">
         <v>10250071</v>
@@ -2759,27 +2756,27 @@
         <v>3206307217</v>
       </c>
       <c r="I30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" t="s">
         <v>214</v>
-      </c>
-      <c r="J30" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" t="s">
         <v>216</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
         <v>217</v>
-      </c>
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" t="s">
-        <v>218</v>
       </c>
       <c r="F31">
         <v>30392935</v>
@@ -2791,27 +2788,27 @@
         <v>3003108170</v>
       </c>
       <c r="I31" t="s">
+        <v>218</v>
+      </c>
+      <c r="J31" t="s">
         <v>219</v>
-      </c>
-      <c r="J31" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" t="s">
         <v>221</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
         <v>222</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" t="s">
-        <v>223</v>
       </c>
       <c r="F32">
         <v>24334576</v>
@@ -2823,27 +2820,27 @@
         <v>3134623938</v>
       </c>
       <c r="I32" t="s">
+        <v>223</v>
+      </c>
+      <c r="J32" t="s">
         <v>224</v>
-      </c>
-      <c r="J32" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" t="s">
         <v>226</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
         <v>227</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" t="s">
-        <v>228</v>
       </c>
       <c r="F33">
         <v>30322042</v>
@@ -2855,27 +2852,27 @@
         <v>3116827825</v>
       </c>
       <c r="I33" t="s">
+        <v>228</v>
+      </c>
+      <c r="J33" t="s">
         <v>229</v>
-      </c>
-      <c r="J33" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" t="s">
         <v>231</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
         <v>232</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" t="s">
-        <v>233</v>
       </c>
       <c r="F34">
         <v>24340753</v>
@@ -2887,27 +2884,27 @@
         <v>3147917762</v>
       </c>
       <c r="I34" t="s">
+        <v>233</v>
+      </c>
+      <c r="J34" t="s">
         <v>234</v>
-      </c>
-      <c r="J34" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" t="s">
         <v>236</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
         <v>237</v>
-      </c>
-      <c r="C35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" t="s">
-        <v>238</v>
       </c>
       <c r="F35">
         <v>9975428</v>
@@ -2919,27 +2916,27 @@
         <v>3113681557</v>
       </c>
       <c r="I35" t="s">
+        <v>238</v>
+      </c>
+      <c r="J35" t="s">
         <v>239</v>
-      </c>
-      <c r="J35" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
         <v>241</v>
-      </c>
-      <c r="C36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" t="s">
-        <v>242</v>
       </c>
       <c r="F36">
         <v>30396241</v>
@@ -2951,19 +2948,19 @@
         <v>3176547111</v>
       </c>
       <c r="I36" t="s">
+        <v>242</v>
+      </c>
+      <c r="J36" t="s">
         <v>243</v>
-      </c>
-      <c r="J36" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" t="s">
         <v>245</v>
       </c>
-      <c r="B37" t="s">
-        <v>246</v>
-      </c>
       <c r="C37" t="s">
         <v>97</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F37">
         <v>30270825</v>
@@ -2983,27 +2980,27 @@
         <v>3162559047</v>
       </c>
       <c r="I37" t="s">
+        <v>246</v>
+      </c>
+      <c r="J37" t="s">
         <v>247</v>
-      </c>
-      <c r="J37" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" t="s">
         <v>249</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
         <v>250</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" t="s">
-        <v>251</v>
       </c>
       <c r="F38">
         <v>24335083</v>
@@ -3015,27 +3012,27 @@
         <v>3146264428</v>
       </c>
       <c r="I38" t="s">
+        <v>251</v>
+      </c>
+      <c r="J38" t="s">
         <v>252</v>
-      </c>
-      <c r="J38" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" t="s">
         <v>254</v>
-      </c>
-      <c r="C39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" t="s">
-        <v>208</v>
-      </c>
-      <c r="E39" t="s">
-        <v>255</v>
       </c>
       <c r="F39">
         <v>30396654</v>
@@ -3047,7 +3044,7 @@
         <v>3104329906</v>
       </c>
       <c r="I39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J39" t="s">
         <v>101</v>
@@ -3055,19 +3052,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" t="s">
         <v>257</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
         <v>258</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" t="s">
-        <v>259</v>
       </c>
       <c r="F40">
         <v>10285068</v>
@@ -3079,27 +3076,27 @@
         <v>3152735162</v>
       </c>
       <c r="I40" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" t="s">
         <v>260</v>
-      </c>
-      <c r="J40" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" t="s">
         <v>262</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
         <v>263</v>
-      </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" t="s">
-        <v>264</v>
       </c>
       <c r="F41">
         <v>9859602</v>
@@ -3111,19 +3108,19 @@
         <v>3103972370</v>
       </c>
       <c r="I41" t="s">
+        <v>264</v>
+      </c>
+      <c r="J41" t="s">
         <v>265</v>
-      </c>
-      <c r="J41" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" t="s">
         <v>267</v>
       </c>
-      <c r="B42" t="s">
-        <v>268</v>
-      </c>
       <c r="C42" t="s">
         <v>97</v>
       </c>
@@ -3131,7 +3128,7 @@
         <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F42">
         <v>75081636</v>
@@ -3143,19 +3140,19 @@
         <v>3113837172</v>
       </c>
       <c r="I42" t="s">
+        <v>268</v>
+      </c>
+      <c r="J42" t="s">
         <v>269</v>
-      </c>
-      <c r="J42" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" t="s">
         <v>271</v>
       </c>
-      <c r="B43" t="s">
-        <v>272</v>
-      </c>
       <c r="C43" t="s">
         <v>97</v>
       </c>
@@ -3163,7 +3160,7 @@
         <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F43">
         <v>1053782472</v>
@@ -3175,19 +3172,19 @@
         <v>3003267169</v>
       </c>
       <c r="I43" t="s">
+        <v>272</v>
+      </c>
+      <c r="J43" t="s">
         <v>273</v>
-      </c>
-      <c r="J43" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44" t="s">
         <v>275</v>
       </c>
-      <c r="B44" t="s">
-        <v>276</v>
-      </c>
       <c r="C44" t="s">
         <v>97</v>
       </c>
@@ -3195,7 +3192,7 @@
         <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F44">
         <v>75096299</v>
@@ -3207,27 +3204,27 @@
         <v>3146504873</v>
       </c>
       <c r="I44" t="s">
+        <v>276</v>
+      </c>
+      <c r="J44" t="s">
         <v>277</v>
-      </c>
-      <c r="J44" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45" t="s">
         <v>279</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" t="s">
         <v>280</v>
-      </c>
-      <c r="C45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" t="s">
-        <v>208</v>
-      </c>
-      <c r="E45" t="s">
-        <v>281</v>
       </c>
       <c r="F45">
         <v>30397958</v>
@@ -3239,7 +3236,7 @@
         <v>3163244180</v>
       </c>
       <c r="I45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J45" t="s">
         <v>101</v>
@@ -3247,19 +3244,19 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>282</v>
+      </c>
+      <c r="B46" t="s">
         <v>283</v>
       </c>
-      <c r="B46" t="s">
-        <v>284</v>
-      </c>
       <c r="C46" t="s">
         <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F46">
         <v>1085297027</v>
@@ -3271,7 +3268,7 @@
         <v>3128488679</v>
       </c>
       <c r="I46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J46" t="s">
         <v>101</v>
@@ -3279,11 +3276,11 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" t="s">
         <v>286</v>
       </c>
-      <c r="B47" t="s">
-        <v>287</v>
-      </c>
       <c r="C47" t="s">
         <v>97</v>
       </c>
@@ -3291,7 +3288,7 @@
         <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F47">
         <v>30395126</v>
@@ -3303,27 +3300,27 @@
         <v>3147694939</v>
       </c>
       <c r="I47" t="s">
+        <v>287</v>
+      </c>
+      <c r="J47" t="s">
         <v>288</v>
-      </c>
-      <c r="J47" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" t="s">
         <v>290</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" t="s">
         <v>291</v>
-      </c>
-      <c r="C48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" t="s">
-        <v>292</v>
       </c>
       <c r="F48">
         <v>75090879</v>
@@ -3335,27 +3332,27 @@
         <v>3206874025</v>
       </c>
       <c r="I48" t="s">
+        <v>292</v>
+      </c>
+      <c r="J48" t="s">
         <v>293</v>
-      </c>
-      <c r="J48" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" t="s">
         <v>295</v>
       </c>
-      <c r="B49" t="s">
-        <v>296</v>
-      </c>
       <c r="C49" t="s">
         <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F49">
         <v>30307343</v>
@@ -3367,19 +3364,19 @@
         <v>3113364387</v>
       </c>
       <c r="I49" t="s">
+        <v>296</v>
+      </c>
+      <c r="J49" t="s">
         <v>297</v>
-      </c>
-      <c r="J49" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>298</v>
+      </c>
+      <c r="B50" t="s">
         <v>299</v>
       </c>
-      <c r="B50" t="s">
-        <v>300</v>
-      </c>
       <c r="C50" t="s">
         <v>97</v>
       </c>
@@ -3387,7 +3384,7 @@
         <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F50">
         <v>79836769</v>
@@ -3399,27 +3396,27 @@
         <v>3185272465</v>
       </c>
       <c r="I50" t="s">
+        <v>300</v>
+      </c>
+      <c r="J50" t="s">
         <v>301</v>
-      </c>
-      <c r="J50" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>302</v>
+      </c>
+      <c r="B51" t="s">
         <v>303</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
         <v>304</v>
-      </c>
-      <c r="C51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" t="s">
-        <v>305</v>
       </c>
       <c r="F51">
         <v>11224476</v>
@@ -3431,18 +3428,18 @@
         <v>3008115106</v>
       </c>
       <c r="I51" t="s">
+        <v>305</v>
+      </c>
+      <c r="J51" t="s">
         <v>306</v>
-      </c>
-      <c r="J51" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
         <v>97</v>
@@ -3451,7 +3448,7 @@
         <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F52">
         <v>30338297</v>
@@ -3463,27 +3460,27 @@
         <v>3176171144</v>
       </c>
       <c r="I52" t="s">
+        <v>308</v>
+      </c>
+      <c r="J52" t="s">
         <v>309</v>
-      </c>
-      <c r="J52" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
+        <v>310</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
         <v>311</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" t="s">
-        <v>312</v>
       </c>
       <c r="F53">
         <v>98392877</v>
@@ -3495,18 +3492,18 @@
         <v>3162860686</v>
       </c>
       <c r="I53" t="s">
+        <v>312</v>
+      </c>
+      <c r="J53" t="s">
         <v>313</v>
-      </c>
-      <c r="J53" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C54" t="s">
         <v>97</v>
@@ -3515,7 +3512,7 @@
         <v>98</v>
       </c>
       <c r="E54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F54">
         <v>1053782759</v>
@@ -3527,27 +3524,27 @@
         <v>3128850805</v>
       </c>
       <c r="I54" t="s">
+        <v>315</v>
+      </c>
+      <c r="J54" t="s">
         <v>316</v>
-      </c>
-      <c r="J54" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B55" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" t="s">
         <v>318</v>
-      </c>
-      <c r="C55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" t="s">
-        <v>319</v>
       </c>
       <c r="F55">
         <v>1053770404</v>
@@ -3559,27 +3556,27 @@
         <v>3015739296</v>
       </c>
       <c r="I55" t="s">
+        <v>319</v>
+      </c>
+      <c r="J55" t="s">
         <v>320</v>
-      </c>
-      <c r="J55" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>321</v>
+      </c>
+      <c r="B56" t="s">
         <v>322</v>
       </c>
-      <c r="B56" t="s">
-        <v>323</v>
-      </c>
       <c r="C56" t="s">
         <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F56">
         <v>30398681</v>
@@ -3591,7 +3588,7 @@
         <v>3008948200</v>
       </c>
       <c r="I56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J56" t="s">
         <v>101</v>
@@ -3599,19 +3596,19 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>324</v>
+      </c>
+      <c r="B57" t="s">
         <v>325</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="s">
         <v>326</v>
-      </c>
-      <c r="C57" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" t="s">
-        <v>327</v>
       </c>
       <c r="F57">
         <v>16077061</v>
@@ -3623,7 +3620,7 @@
         <v>3206845171</v>
       </c>
       <c r="I57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J57" t="s">
         <v>101</v>
@@ -3631,7 +3628,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s">
         <v>103</v>
@@ -3643,7 +3640,7 @@
         <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F58">
         <v>1053811426</v>
@@ -3655,19 +3652,19 @@
         <v>3045458490</v>
       </c>
       <c r="I58" t="s">
+        <v>330</v>
+      </c>
+      <c r="J58" t="s">
         <v>331</v>
-      </c>
-      <c r="J58" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>332</v>
+      </c>
+      <c r="B59" t="s">
         <v>333</v>
       </c>
-      <c r="B59" t="s">
-        <v>334</v>
-      </c>
       <c r="C59" t="s">
         <v>97</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>98</v>
       </c>
       <c r="E59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F59">
         <v>1053777708</v>
@@ -3687,27 +3684,27 @@
         <v>3163159109</v>
       </c>
       <c r="I59" t="s">
+        <v>334</v>
+      </c>
+      <c r="J59" t="s">
         <v>335</v>
-      </c>
-      <c r="J59" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>336</v>
+      </c>
+      <c r="B60" t="s">
         <v>337</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="s">
         <v>338</v>
-      </c>
-      <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" t="s">
-        <v>339</v>
       </c>
       <c r="F60">
         <v>1053807619</v>
@@ -3719,19 +3716,19 @@
         <v>3113005998</v>
       </c>
       <c r="I60" t="s">
+        <v>339</v>
+      </c>
+      <c r="J60" t="s">
         <v>340</v>
-      </c>
-      <c r="J60" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>341</v>
+      </c>
+      <c r="B61" t="s">
         <v>342</v>
       </c>
-      <c r="B61" t="s">
-        <v>343</v>
-      </c>
       <c r="C61" t="s">
         <v>97</v>
       </c>
@@ -3739,7 +3736,7 @@
         <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F61">
         <v>10286879</v>
@@ -3751,19 +3748,19 @@
         <v>3117268025</v>
       </c>
       <c r="I61" t="s">
+        <v>343</v>
+      </c>
+      <c r="J61" t="s">
         <v>344</v>
-      </c>
-      <c r="J61" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" t="s">
         <v>346</v>
       </c>
-      <c r="B62" t="s">
-        <v>347</v>
-      </c>
       <c r="C62" t="s">
         <v>97</v>
       </c>
@@ -3771,7 +3768,7 @@
         <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F62">
         <v>10245454</v>
@@ -3783,27 +3780,27 @@
         <v>3117581159</v>
       </c>
       <c r="I62" t="s">
+        <v>347</v>
+      </c>
+      <c r="J62" t="s">
         <v>348</v>
-      </c>
-      <c r="J62" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>349</v>
+      </c>
+      <c r="B63" t="s">
         <v>350</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" t="s">
         <v>351</v>
-      </c>
-      <c r="C63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" t="s">
-        <v>352</v>
       </c>
       <c r="F63">
         <v>1053784021</v>
@@ -3815,7 +3812,7 @@
         <v>3117848943</v>
       </c>
       <c r="I63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J63" t="s">
         <v>101</v>
@@ -3823,10 +3820,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
         <v>97</v>
@@ -3835,7 +3832,7 @@
         <v>98</v>
       </c>
       <c r="E64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F64">
         <v>24333588</v>
@@ -3847,27 +3844,27 @@
         <v>3103898510</v>
       </c>
       <c r="I64" t="s">
+        <v>354</v>
+      </c>
+      <c r="J64" t="s">
         <v>355</v>
-      </c>
-      <c r="J64" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>356</v>
+      </c>
+      <c r="B65" t="s">
         <v>357</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" t="s">
         <v>358</v>
-      </c>
-      <c r="C65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" t="s">
-        <v>359</v>
       </c>
       <c r="F65">
         <v>30405204</v>
@@ -3879,19 +3876,19 @@
         <v>3146611226</v>
       </c>
       <c r="I65" t="s">
+        <v>359</v>
+      </c>
+      <c r="J65" t="s">
         <v>360</v>
-      </c>
-      <c r="J65" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" t="s">
         <v>362</v>
       </c>
-      <c r="B66" t="s">
-        <v>363</v>
-      </c>
       <c r="C66" t="s">
         <v>97</v>
       </c>
@@ -3899,7 +3896,7 @@
         <v>98</v>
       </c>
       <c r="E66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F66">
         <v>30321612</v>
@@ -3911,19 +3908,19 @@
         <v>3135217056</v>
       </c>
       <c r="I66" t="s">
+        <v>363</v>
+      </c>
+      <c r="J66" t="s">
         <v>364</v>
-      </c>
-      <c r="J66" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>365</v>
+      </c>
+      <c r="B67" t="s">
         <v>366</v>
       </c>
-      <c r="B67" t="s">
-        <v>367</v>
-      </c>
       <c r="C67" t="s">
         <v>97</v>
       </c>
@@ -3931,7 +3928,7 @@
         <v>98</v>
       </c>
       <c r="E67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F67">
         <v>30310215</v>
@@ -3943,19 +3940,19 @@
         <v>3176422121</v>
       </c>
       <c r="I67" t="s">
+        <v>367</v>
+      </c>
+      <c r="J67" t="s">
         <v>368</v>
-      </c>
-      <c r="J67" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>369</v>
+      </c>
+      <c r="B68" t="s">
         <v>370</v>
       </c>
-      <c r="B68" t="s">
-        <v>371</v>
-      </c>
       <c r="C68" t="s">
         <v>97</v>
       </c>
@@ -3963,7 +3960,7 @@
         <v>98</v>
       </c>
       <c r="E68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F68">
         <v>6108160</v>
@@ -3975,7 +3972,7 @@
         <v>3122011383</v>
       </c>
       <c r="I68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J68" t="s">
         <v>101</v>
@@ -3983,11 +3980,11 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>372</v>
+      </c>
+      <c r="B69" t="s">
         <v>373</v>
       </c>
-      <c r="B69" t="s">
-        <v>374</v>
-      </c>
       <c r="C69" t="s">
         <v>97</v>
       </c>
@@ -3995,7 +3992,7 @@
         <v>98</v>
       </c>
       <c r="E69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F69">
         <v>75003878</v>
@@ -4007,27 +4004,27 @@
         <v>3104681193</v>
       </c>
       <c r="I69" t="s">
+        <v>374</v>
+      </c>
+      <c r="J69" t="s">
         <v>375</v>
-      </c>
-      <c r="J69" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>376</v>
+      </c>
+      <c r="B70" t="s">
         <v>377</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" t="s">
         <v>378</v>
-      </c>
-      <c r="C70" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" t="s">
-        <v>208</v>
-      </c>
-      <c r="E70" t="s">
-        <v>379</v>
       </c>
       <c r="F70">
         <v>1110506666</v>
@@ -4039,7 +4036,7 @@
         <v>3115183802</v>
       </c>
       <c r="I70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J70" t="s">
         <v>101</v>
@@ -4047,11 +4044,11 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>380</v>
+      </c>
+      <c r="B71" t="s">
         <v>381</v>
       </c>
-      <c r="B71" t="s">
-        <v>382</v>
-      </c>
       <c r="C71" t="s">
         <v>97</v>
       </c>
@@ -4059,7 +4056,7 @@
         <v>98</v>
       </c>
       <c r="E71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F71">
         <v>75097575</v>
@@ -4071,18 +4068,18 @@
         <v>3107324131</v>
       </c>
       <c r="I71" t="s">
+        <v>382</v>
+      </c>
+      <c r="J71" t="s">
         <v>383</v>
-      </c>
-      <c r="J71" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C72" t="s">
         <v>97</v>
@@ -4091,7 +4088,7 @@
         <v>98</v>
       </c>
       <c r="E72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F72">
         <v>75096659</v>
@@ -4103,19 +4100,19 @@
         <v>3207585520</v>
       </c>
       <c r="I72" t="s">
+        <v>385</v>
+      </c>
+      <c r="J72" t="s">
         <v>386</v>
-      </c>
-      <c r="J72" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B73" t="s">
         <v>388</v>
       </c>
-      <c r="B73" t="s">
-        <v>389</v>
-      </c>
       <c r="C73" t="s">
         <v>97</v>
       </c>
@@ -4123,7 +4120,7 @@
         <v>98</v>
       </c>
       <c r="E73" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F73">
         <v>75073330</v>
@@ -4135,27 +4132,27 @@
         <v>3148856871</v>
       </c>
       <c r="I73" t="s">
+        <v>389</v>
+      </c>
+      <c r="J73" t="s">
         <v>390</v>
-      </c>
-      <c r="J73" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>391</v>
+      </c>
+      <c r="B74" t="s">
         <v>392</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" t="s">
         <v>393</v>
-      </c>
-      <c r="C74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" t="s">
-        <v>394</v>
       </c>
       <c r="F74">
         <v>10262514</v>
@@ -4167,19 +4164,19 @@
         <v>3117733406</v>
       </c>
       <c r="I74" t="s">
+        <v>394</v>
+      </c>
+      <c r="J74" t="s">
         <v>395</v>
-      </c>
-      <c r="J74" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>396</v>
+      </c>
+      <c r="B75" t="s">
         <v>397</v>
       </c>
-      <c r="B75" t="s">
-        <v>398</v>
-      </c>
       <c r="C75" t="s">
         <v>97</v>
       </c>
@@ -4187,7 +4184,7 @@
         <v>98</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F75">
         <v>75088893</v>
@@ -4199,27 +4196,27 @@
         <v>3127917880</v>
       </c>
       <c r="I75" t="s">
+        <v>398</v>
+      </c>
+      <c r="J75" t="s">
         <v>399</v>
-      </c>
-      <c r="J75" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>400</v>
+      </c>
+      <c r="B76" t="s">
         <v>401</v>
       </c>
-      <c r="B76" t="s">
-        <v>402</v>
-      </c>
       <c r="C76" t="s">
         <v>97</v>
       </c>
       <c r="D76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F76">
         <v>30395470</v>
@@ -4231,7 +4228,7 @@
         <v>3117157455</v>
       </c>
       <c r="I76" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J76" t="s">
         <v>101</v>
@@ -4239,19 +4236,19 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>403</v>
+      </c>
+      <c r="B77" t="s">
         <v>404</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" t="s">
         <v>405</v>
-      </c>
-      <c r="C77" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" t="s">
-        <v>406</v>
       </c>
       <c r="F77">
         <v>16073677</v>
@@ -4263,27 +4260,27 @@
         <v>3105488749</v>
       </c>
       <c r="I77" t="s">
+        <v>406</v>
+      </c>
+      <c r="J77" t="s">
         <v>407</v>
-      </c>
-      <c r="J77" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>408</v>
+      </c>
+      <c r="B78" t="s">
         <v>409</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" t="s">
         <v>410</v>
-      </c>
-      <c r="C78" t="s">
-        <v>97</v>
-      </c>
-      <c r="D78" t="s">
-        <v>116</v>
-      </c>
-      <c r="E78" t="s">
-        <v>411</v>
       </c>
       <c r="F78">
         <v>42114871</v>
@@ -4295,19 +4292,19 @@
         <v>3216265294</v>
       </c>
       <c r="I78" t="s">
+        <v>411</v>
+      </c>
+      <c r="J78" t="s">
         <v>412</v>
-      </c>
-      <c r="J78" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>413</v>
+      </c>
+      <c r="B79" t="s">
         <v>414</v>
       </c>
-      <c r="B79" t="s">
-        <v>415</v>
-      </c>
       <c r="C79" t="s">
         <v>97</v>
       </c>
@@ -4315,7 +4312,7 @@
         <v>98</v>
       </c>
       <c r="E79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F79">
         <v>281463</v>
@@ -4327,27 +4324,27 @@
         <v>3016877061</v>
       </c>
       <c r="I79" t="s">
+        <v>415</v>
+      </c>
+      <c r="J79" t="s">
         <v>416</v>
-      </c>
-      <c r="J79" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B80" t="s">
+        <v>417</v>
+      </c>
+      <c r="C80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" t="s">
         <v>418</v>
-      </c>
-      <c r="C80" t="s">
-        <v>97</v>
-      </c>
-      <c r="D80" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" t="s">
-        <v>419</v>
       </c>
       <c r="F80">
         <v>75107712</v>
@@ -4359,27 +4356,27 @@
         <v>3117423635</v>
       </c>
       <c r="I80" t="s">
+        <v>419</v>
+      </c>
+      <c r="J80" t="s">
         <v>420</v>
-      </c>
-      <c r="J80" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>421</v>
+      </c>
+      <c r="B81" t="s">
         <v>422</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" t="s">
         <v>423</v>
-      </c>
-      <c r="C81" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" t="s">
-        <v>424</v>
       </c>
       <c r="F81">
         <v>1053806513</v>
@@ -4391,19 +4388,19 @@
         <v>3166098393</v>
       </c>
       <c r="I81" t="s">
+        <v>424</v>
+      </c>
+      <c r="J81" t="s">
         <v>425</v>
-      </c>
-      <c r="J81" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>426</v>
+      </c>
+      <c r="B82" t="s">
         <v>427</v>
       </c>
-      <c r="B82" t="s">
-        <v>428</v>
-      </c>
       <c r="C82" t="s">
         <v>97</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>98</v>
       </c>
       <c r="E82" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F82">
         <v>75072443</v>
@@ -4423,19 +4420,19 @@
         <v>3115858811</v>
       </c>
       <c r="I82" t="s">
+        <v>428</v>
+      </c>
+      <c r="J82" t="s">
         <v>429</v>
-      </c>
-      <c r="J82" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>430</v>
+      </c>
+      <c r="B83" t="s">
         <v>431</v>
       </c>
-      <c r="B83" t="s">
-        <v>432</v>
-      </c>
       <c r="C83" t="s">
         <v>97</v>
       </c>
@@ -4443,7 +4440,7 @@
         <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F83">
         <v>31570114</v>
@@ -4455,27 +4452,27 @@
         <v>3123042862</v>
       </c>
       <c r="I83" t="s">
+        <v>432</v>
+      </c>
+      <c r="J83" t="s">
         <v>433</v>
-      </c>
-      <c r="J83" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>434</v>
+      </c>
+      <c r="B84" t="s">
         <v>435</v>
       </c>
-      <c r="B84" t="s">
-        <v>436</v>
-      </c>
       <c r="C84" t="s">
         <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E84" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F84">
         <v>7534711</v>
@@ -4487,7 +4484,7 @@
         <v>3164494488</v>
       </c>
       <c r="I84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J84" t="s">
         <v>101</v>
@@ -4495,11 +4492,11 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>437</v>
+      </c>
+      <c r="B85" t="s">
         <v>438</v>
       </c>
-      <c r="B85" t="s">
-        <v>439</v>
-      </c>
       <c r="C85" t="s">
         <v>97</v>
       </c>
@@ -4507,7 +4504,7 @@
         <v>98</v>
       </c>
       <c r="E85" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F85">
         <v>24347071</v>
@@ -4519,18 +4516,18 @@
         <v>3113756986</v>
       </c>
       <c r="I85" t="s">
+        <v>439</v>
+      </c>
+      <c r="J85" t="s">
         <v>440</v>
-      </c>
-      <c r="J85" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C86" t="s">
         <v>97</v>
@@ -4539,7 +4536,7 @@
         <v>98</v>
       </c>
       <c r="E86" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F86">
         <v>30232108</v>
@@ -4551,7 +4548,7 @@
         <v>3007736768</v>
       </c>
       <c r="I86" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J86" t="s">
         <v>101</v>
@@ -4559,11 +4556,11 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>443</v>
+      </c>
+      <c r="B87" t="s">
         <v>444</v>
       </c>
-      <c r="B87" t="s">
-        <v>445</v>
-      </c>
       <c r="C87" t="s">
         <v>97</v>
       </c>
@@ -4571,7 +4568,7 @@
         <v>98</v>
       </c>
       <c r="E87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F87">
         <v>75096428</v>
@@ -4583,19 +4580,19 @@
         <v>3214514010</v>
       </c>
       <c r="I87" t="s">
+        <v>445</v>
+      </c>
+      <c r="J87" t="s">
         <v>446</v>
-      </c>
-      <c r="J87" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>447</v>
+      </c>
+      <c r="B88" t="s">
         <v>448</v>
       </c>
-      <c r="B88" t="s">
-        <v>449</v>
-      </c>
       <c r="C88" t="s">
         <v>97</v>
       </c>
@@ -4603,7 +4600,7 @@
         <v>98</v>
       </c>
       <c r="E88" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F88">
         <v>27451978</v>
@@ -4615,19 +4612,19 @@
         <v>3113684029</v>
       </c>
       <c r="I88" t="s">
+        <v>449</v>
+      </c>
+      <c r="J88" t="s">
         <v>450</v>
-      </c>
-      <c r="J88" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>451</v>
+      </c>
+      <c r="B89" t="s">
         <v>452</v>
       </c>
-      <c r="B89" t="s">
-        <v>453</v>
-      </c>
       <c r="C89" t="s">
         <v>97</v>
       </c>
@@ -4635,7 +4632,7 @@
         <v>98</v>
       </c>
       <c r="E89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F89">
         <v>1053780547</v>
@@ -4647,19 +4644,19 @@
         <v>3108406371</v>
       </c>
       <c r="I89" t="s">
+        <v>453</v>
+      </c>
+      <c r="J89" t="s">
         <v>454</v>
-      </c>
-      <c r="J89" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>455</v>
+      </c>
+      <c r="B90" t="s">
         <v>456</v>
       </c>
-      <c r="B90" t="s">
-        <v>457</v>
-      </c>
       <c r="C90" t="s">
         <v>97</v>
       </c>
@@ -4667,7 +4664,7 @@
         <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F90">
         <v>1053800692</v>
@@ -4679,27 +4676,27 @@
         <v>3128820955</v>
       </c>
       <c r="I90" t="s">
+        <v>457</v>
+      </c>
+      <c r="J90" t="s">
         <v>458</v>
-      </c>
-      <c r="J90" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>459</v>
+      </c>
+      <c r="B91" t="s">
         <v>460</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" t="s">
         <v>461</v>
-      </c>
-      <c r="C91" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91" t="s">
-        <v>98</v>
-      </c>
-      <c r="E91" t="s">
-        <v>462</v>
       </c>
       <c r="F91">
         <v>80870811</v>
@@ -4711,27 +4708,27 @@
         <v>3103209980</v>
       </c>
       <c r="I91" t="s">
+        <v>462</v>
+      </c>
+      <c r="J91" t="s">
         <v>463</v>
-      </c>
-      <c r="J91" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>464</v>
+      </c>
+      <c r="B92" t="s">
         <v>465</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" t="s">
         <v>466</v>
-      </c>
-      <c r="C92" t="s">
-        <v>97</v>
-      </c>
-      <c r="D92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E92" t="s">
-        <v>467</v>
       </c>
       <c r="F92">
         <v>75034645</v>
@@ -4743,10 +4740,10 @@
         <v>3205245495</v>
       </c>
       <c r="I92" t="s">
+        <v>467</v>
+      </c>
+      <c r="J92" t="s">
         <v>468</v>
-      </c>
-      <c r="J92" t="s">
-        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -4761,7 +4758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
